--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB27AD-6337-4445-980B-79CBB8C4CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1430FA6B-AE28-42E2-9BE2-6F31A3F39AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="27720" windowHeight="10695" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="импорт из моделей" sheetId="5" r:id="rId4"/>
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,9 +205,10 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">переносимые параметры, нр
+          <t xml:space="preserve">Переносимые параметры
+Ключи таблицы (нр ny для node) вводить не обязательно
+Например:
 pn,qn
-ключи таблицы (нр ny для node) вводить не обязательно
 </t>
         </r>
       </text>
@@ -223,7 +224,10 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>обновить: 2 , загрузить: 1, дополнить: 0, обновить-добавить: 3</t>
+          <t>обновить: 2
+загрузить: 1
+дополнить: 0
+обновить-добавить: 3</t>
         </r>
       </text>
     </comment>
@@ -237,7 +241,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>нр
+          <t>В формате:
 2025-2028,2030</t>
         </r>
       </text>
@@ -537,7 +541,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">). 
+          <t xml:space="preserve">). Пробелы следует использовать исключительно для разделения выборок.
 В круглых скобках указать имя таблицы (н.р. </t>
         </r>
         <r>
@@ -1013,9 +1017,6 @@
     <t>npa=11</t>
   </si>
   <si>
-    <t>*[2026][зим][мин][0°C]</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
@@ -1347,6 +1348,9 @@
   </si>
   <si>
     <t>pn,qn</t>
+  </si>
+  <si>
+    <t>*[2026] [зим] [мин] [0°C]</t>
   </si>
 </sst>
 </file>
@@ -1852,20 +1856,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2281,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2108A675-D9C4-4B1E-96B8-5AA055D2716A}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N2" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2301,7 @@
     <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
     <col min="13" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="8.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2306,43 +2310,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="58" t="s">
+      <c r="C1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="59"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="57"/>
       <c r="P1" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>0</v>
@@ -2366,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="32" t="s">
         <v>13</v>
@@ -2378,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2390,7 @@
         <v>15504</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
@@ -2423,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -2460,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -2483,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -2506,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2529,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2552,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2575,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2598,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>800</v>
@@ -2618,10 +2622,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>4000</v>
@@ -2641,10 +2645,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -2664,10 +2668,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
@@ -2687,10 +2691,10 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
@@ -2709,172 +2713,167 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
+      <c r="A23" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -2883,6 +2882,11 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2912,31 +2916,31 @@
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="61"/>
       <c r="E1" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="62"/>
       <c r="G1" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="65"/>
       <c r="K1" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L1" s="65"/>
       <c r="M1" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P1" s="65"/>
       <c r="Q1" s="62" t="s">
@@ -2944,7 +2948,7 @@
       </c>
       <c r="R1" s="62"/>
       <c r="S1" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T1" s="63"/>
     </row>
@@ -3011,7 +3015,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -3086,7 +3090,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="46">
         <v>2</v>
@@ -3161,7 +3165,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="46">
         <v>3</v>
@@ -3232,7 +3236,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="46">
         <v>4</v>
@@ -3303,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="46">
         <v>5</v>
@@ -3374,7 +3378,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
@@ -3453,62 +3457,62 @@
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>111</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3516,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="46">
         <v>600</v>
@@ -3550,10 +3554,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="46">
         <v>3600</v>
@@ -3587,10 +3591,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -3616,7 +3620,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,14 +3636,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
       <c r="E1" s="69"/>
       <c r="F1" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
@@ -3647,42 +3651,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>125</v>
-      </c>
       <c r="C3" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="55"/>
       <c r="E3" s="13">
@@ -3692,25 +3696,25 @@
         <v>2026</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="13">
         <v>2</v>
@@ -3719,25 +3723,25 @@
         <v>2026</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="55" t="s">
         <v>127</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>128</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -3773,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,12 +3792,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
       <c r="D1" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
@@ -3801,167 +3805,167 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="15">
         <v>2026</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="C14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -3969,7 +3973,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -3977,62 +3981,62 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1430FA6B-AE28-42E2-9BE2-6F31A3F39AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE261FEB-A944-4E57-BCE4-A839B682857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="импорт из моделей" sheetId="5" r:id="rId4"/>
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N2" sqref="N1:O1048576"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE261FEB-A944-4E57-BCE4-A839B682857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27651715-B6CD-41E0-9000-EF777C73D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -305,14 +305,15 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>если имена файлов стандартного формата, то можно корректировать файлы соответствующие выборке</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    Выборка файлов позволяет вносить изменения только в те файлы со стандартным именем которые удовлетворяют выборке.
+   Если выборка файлов в соответствующей строке не заполнена, то строка будет выполняться во всех файлах.
+    Если имя файла нестандартное, изменения в него тоже будут вноситься.</t>
         </r>
       </text>
     </comment>
@@ -392,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AD8453BF-294E-4093-93FE-6A2A75AEBC8D}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{32AD46C1-3D09-4904-8B29-BED4417ED0AE}">
       <text>
         <r>
           <rPr>
@@ -404,6 +405,21 @@
             <charset val="204"/>
           </rPr>
           <t>указывается в скобках в названии файла через ";"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{AD8453BF-294E-4093-93FE-6A2A75AEBC8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выполнять если утверждение верно. Несколько условий разделяются знаком "|".</t>
         </r>
       </text>
     </comment>
@@ -651,7 +667,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">.
-Краткая форма выборки по узлам:  </t>
+Краткая форма выборки по ветвям:  </t>
         </r>
         <r>
           <rPr>
@@ -964,7 +980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
   <si>
     <t>pn</t>
   </si>
@@ -1134,9 +1150,6 @@
     <t>изм</t>
   </si>
   <si>
-    <t>#удалить</t>
-  </si>
-  <si>
     <t>снять отметку</t>
   </si>
   <si>
@@ -1164,12 +1177,6 @@
     <t>удалить*</t>
   </si>
   <si>
-    <t>15145 ny=15147</t>
-  </si>
-  <si>
-    <t>ny=15148</t>
-  </si>
-  <si>
     <t>15148</t>
   </si>
   <si>
@@ -1215,9 +1222,6 @@
     <t>15205</t>
   </si>
   <si>
-    <t>qmax=-5 qmin=-100</t>
-  </si>
-  <si>
     <t>15561,15129,0 15562,15130,0 Num=912 g=913</t>
   </si>
   <si>
@@ -1260,9 +1264,6 @@
     <t>Во второй строке имя корректируемого параметра из таблиц RastrWin. Еесли указано поле pop или pp то потребление будет изменяться за счет pn, qn узлов.</t>
   </si>
   <si>
-    <t>На пересечении указывается требуемое значение.</t>
-  </si>
-  <si>
     <t>В остальных ячейках листа могут быть любые значения.</t>
   </si>
   <si>
@@ -1351,6 +1352,39 @@
   </si>
   <si>
     <t>*[2026] [зим] [мин] [0°C]</t>
+  </si>
+  <si>
+    <t>qmax=-5 qmin=-100 pn=10 qn=pn*0.4</t>
+  </si>
+  <si>
+    <t>pn*0.4</t>
+  </si>
+  <si>
+    <t>pn*0.5</t>
+  </si>
+  <si>
+    <t>На пересечении указывается требуемое числовое значение (в ячейке может быть не число, а формула, например =10*0.4) или формула для rastr (напрмер pn*0.4)</t>
+  </si>
+  <si>
+    <t>Выборка в таблицах</t>
+  </si>
+  <si>
+    <t>Утверждение</t>
+  </si>
+  <si>
+    <t>ny=15301</t>
+  </si>
+  <si>
+    <t>pg=14</t>
+  </si>
+  <si>
+    <t>ny=15302: vras&gt;525.5|ny=15302: vras&lt;100</t>
+  </si>
+  <si>
+    <t>15301: vras&lt;525.5|15301: vras&gt;100</t>
+  </si>
+  <si>
+    <t>15049</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1855,6 +1889,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2285,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2108A675-D9C4-4B1E-96B8-5AA055D2716A}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,38 +2338,38 @@
     <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
     <col min="13" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="5.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="42" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="42" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40">
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="58"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2401,10 +2438,11 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="G3" s="5">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
+        <f>10*2</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2440,8 +2478,8 @@
       <c r="G4" s="5">
         <v>15</v>
       </c>
-      <c r="H4" s="5">
-        <v>8</v>
+      <c r="H4" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2691,7 +2729,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>31</v>
@@ -2713,164 +2751,164 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
+      <c r="A23" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2888,6 +2926,7 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2899,7 +2938,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:R17"/>
+      <selection activeCell="L10" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2946,9 @@
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="20" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="17" width="5.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,42 +2956,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="63"/>
+      <c r="I1" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="66"/>
+      <c r="K1" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="66"/>
+      <c r="M1" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="66"/>
+      <c r="O1" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="64" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="63"/>
+      <c r="T1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3015,7 +3056,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -3073,10 +3114,10 @@
         <v>0.70862440000000049</v>
       </c>
       <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0.4</v>
+        <v>10</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="S3" s="46">
         <v>2</v>
@@ -3090,7 +3131,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C4" s="46">
         <v>2</v>
@@ -3150,8 +3191,8 @@
       <c r="Q4" s="5">
         <v>2</v>
       </c>
-      <c r="R4" s="5">
-        <v>0.8</v>
+      <c r="R4" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="S4" s="46">
         <v>2</v>
@@ -3165,7 +3206,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" s="46">
         <v>3</v>
@@ -3236,7 +3277,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C6" s="46">
         <v>4</v>
@@ -3307,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="46">
         <v>5</v>
@@ -3378,7 +3419,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
@@ -3429,6 +3470,7 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3460,28 +3502,28 @@
         <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>110</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3520,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" s="46">
         <v>600</v>
@@ -3554,10 +3596,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C4" s="46">
         <v>3600</v>
@@ -3594,7 +3636,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -3620,7 +3662,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,19 +3677,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="66" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3680,10 +3722,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>45</v>
@@ -3732,16 +3774,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -3775,40 +3817,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="19" customWidth="1"/>
-    <col min="4" max="7" width="14.28515625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="15"/>
+    <col min="2" max="2" width="45.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>54</v>
@@ -3822,150 +3869,162 @@
       <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="56" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15">
         <v>2026</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="20" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -3973,7 +4032,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -3984,68 +4043,68 @@
         <v>55</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B2 A1:A15 A23">
+  <conditionalFormatting sqref="A1:B2 A23 A1:A15">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27651715-B6CD-41E0-9000-EF777C73D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FFFC6-0C16-47EA-AD2A-A63A5A98C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ТФ пример 2 (pop)" sheetId="9" r:id="rId3"/>
     <sheet name="импорт из моделей" sheetId="5" r:id="rId4"/>
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
+    <sheet name="#" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -980,7 +981,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
   <si>
     <t>pn</t>
   </si>
@@ -1165,9 +1166,6 @@
     <t>node</t>
   </si>
   <si>
-    <t>пробелы и буквы</t>
-  </si>
-  <si>
     <t>node:name,dname vetv:dname Generator:Name</t>
   </si>
   <si>
@@ -1385,6 +1383,18 @@
   </si>
   <si>
     <t>15049</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U&lt;300</t>
+  </si>
+  <si>
+    <t>U&gt;300</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1893,6 +1903,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1943,6 +1956,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2347,29 +2366,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="59"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2442,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2479,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2729,7 +2748,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>31</v>
@@ -2751,164 +2770,164 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
+      <c r="A23" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2956,42 +2975,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="65" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="65" t="s">
+      <c r="L1" s="67"/>
+      <c r="M1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="63" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3056,7 +3075,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -3117,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S3" s="46">
         <v>2</v>
@@ -3131,7 +3150,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="46">
         <v>2</v>
@@ -3192,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S4" s="46">
         <v>2</v>
@@ -3206,7 +3225,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="46">
         <v>3</v>
@@ -3277,7 +3296,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="46">
         <v>4</v>
@@ -3348,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="46">
         <v>5</v>
@@ -3419,7 +3438,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
@@ -3502,28 +3521,28 @@
         <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>105</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3562,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="46">
         <v>600</v>
@@ -3596,10 +3615,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="46">
         <v>3600</v>
@@ -3636,7 +3655,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -3677,19 +3696,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3722,10 +3741,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>119</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>45</v>
@@ -3774,16 +3793,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>122</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -3820,7 +3839,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,25 +3856,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
+      <c r="A1" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>54</v>
@@ -3873,18 +3892,18 @@
         <v>43</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3892,13 +3911,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,7 +3925,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3914,10 +3933,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3925,10 +3944,10 @@
         <v>55</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,10 +3955,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3947,10 +3966,10 @@
         <v>55</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,13 +3980,13 @@
         <v>2026</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3975,10 +3994,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3989,7 +4008,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,7 +4019,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4011,20 +4030,20 @@
         <v>59</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -4032,7 +4051,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -4043,54 +4062,54 @@
         <v>55</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4128,4 +4147,143 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ECBDA0-65DA-4B14-A52A-EAA2E225898E}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+      <c r="B2" s="57">
+        <v>0.95</v>
+      </c>
+      <c r="C2" s="57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D2" s="57">
+        <v>0.98</v>
+      </c>
+      <c r="E2" s="57">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="57">
+        <v>6</v>
+      </c>
+      <c r="B3" s="57">
+        <f>$A3*B$2</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="C3" s="57">
+        <f>$A3*C$2</f>
+        <v>6.84</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
+        <v>10</v>
+      </c>
+      <c r="B4" s="57">
+        <f t="shared" ref="B4:B7" si="0">$A4*B$2</f>
+        <v>9.5</v>
+      </c>
+      <c r="C4" s="57">
+        <f>$A4*C$2</f>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>35</v>
+      </c>
+      <c r="B5" s="57">
+        <f t="shared" si="0"/>
+        <v>33.25</v>
+      </c>
+      <c r="C5" s="57">
+        <f>$A5*C$2</f>
+        <v>39.9</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>110</v>
+      </c>
+      <c r="B6" s="57">
+        <f t="shared" si="0"/>
+        <v>104.5</v>
+      </c>
+      <c r="C6" s="57">
+        <f>$A6*C$2</f>
+        <v>125.39999999999999</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>220</v>
+      </c>
+      <c r="B7" s="57">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="C7" s="57">
+        <f>$A7*C$2</f>
+        <v>250.79999999999998</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>500</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57">
+        <f>$A8*D$2</f>
+        <v>490</v>
+      </c>
+      <c r="E8" s="57">
+        <f t="shared" ref="E8" si="1">$A8*E$2</f>
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FFFC6-0C16-47EA-AD2A-A63A5A98C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AF5F3-0C53-427D-839E-2B5C67578CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
     <sheet name="#" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1166,9 +1166,6 @@
     <t>node</t>
   </si>
   <si>
-    <t>node:name,dname vetv:dname Generator:Name</t>
-  </si>
-  <si>
     <t>СХН</t>
   </si>
   <si>
@@ -1187,9 +1184,6 @@
     <t>макс</t>
   </si>
   <si>
-    <t>na=12(node) ny=15521</t>
-  </si>
-  <si>
     <t>номинальные напряжения</t>
   </si>
   <si>
@@ -1205,36 +1199,15 @@
     <t>node vetv Generator</t>
   </si>
   <si>
-    <t>na=11(node) (vetv)</t>
-  </si>
-  <si>
-    <t>name=Промплощадка:_изм_name</t>
-  </si>
-  <si>
-    <t>15195 15196</t>
-  </si>
-  <si>
     <t>vzd=121</t>
   </si>
   <si>
     <t>15205</t>
   </si>
   <si>
-    <t>15561,15129,0 15562,15130,0 Num=912 g=913</t>
-  </si>
-  <si>
     <t>-41°C</t>
   </si>
   <si>
-    <t>ip=15524 iq=3 np=3 x=2 r=1,5 b=-0,000182</t>
-  </si>
-  <si>
-    <t>nga=16 name=Новая</t>
-  </si>
-  <si>
-    <t>ny=3 pn=1 uhom=120 na=11 name=Новый_узел</t>
-  </si>
-  <si>
     <t>#экспорт excel - доделать</t>
   </si>
   <si>
@@ -1331,9 +1304,6 @@
     <t>Tc=0</t>
   </si>
   <si>
-    <t>(vetv) (area) (area2) (darea)</t>
-  </si>
-  <si>
     <t>I:\rastr_add\test\файлы импорта\файл для импорт.rg2</t>
   </si>
   <si>
@@ -1352,9 +1322,6 @@
     <t>*[2026] [зим] [мин] [0°C]</t>
   </si>
   <si>
-    <t>qmax=-5 qmin=-100 pn=10 qn=pn*0.4</t>
-  </si>
-  <si>
     <t>pn*0.4</t>
   </si>
   <si>
@@ -1395,6 +1362,39 @@
   </si>
   <si>
     <t>U&gt;300</t>
+  </si>
+  <si>
+    <t>15561,15129,0; 15562,15130,0; Num=912; g=913</t>
+  </si>
+  <si>
+    <t>15195; 15196</t>
+  </si>
+  <si>
+    <t>na=11(node); (vetv)</t>
+  </si>
+  <si>
+    <t>na=12(node); ny=15521</t>
+  </si>
+  <si>
+    <t>name=Промплощадка:изм name</t>
+  </si>
+  <si>
+    <t>qmax=-5; qmin=-100; pn=10; qn=pn*0.4</t>
+  </si>
+  <si>
+    <t>ny=3; pn=1; uhom=120; na=11; name=Новый узел</t>
+  </si>
+  <si>
+    <t>ip=15524; iq=3; np=3; x=2; r=1.5; b=-0.000182</t>
+  </si>
+  <si>
+    <t>nga=16; name=Новая</t>
+  </si>
+  <si>
+    <t>node:name,dname; vetv:dname; Generator:Name</t>
+  </si>
+  <si>
+    <t>(vetv); (area); (area2); (darea)</t>
   </si>
 </sst>
 </file>
@@ -1906,6 +1906,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1914,12 +1920,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2366,29 +2366,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="61"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>31</v>
@@ -2770,167 +2770,172 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
+      <c r="A16" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
+      <c r="A17" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="A18" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+      <c r="A19" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="A20" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
+      <c r="A21" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="A22" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
+      <c r="A23" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -2939,11 +2944,6 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,7 +2957,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L11"/>
+      <selection activeCell="A3" sqref="A3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,27 +2980,27 @@
       </c>
       <c r="D1" s="63"/>
       <c r="E1" s="64" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F1" s="64"/>
       <c r="G1" s="64" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H1" s="64"/>
       <c r="I1" s="66" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="66" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L1" s="67"/>
       <c r="M1" s="66" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N1" s="67"/>
       <c r="O1" s="66" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P1" s="67"/>
       <c r="Q1" s="64" t="s">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="R1" s="64"/>
       <c r="S1" s="65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T1" s="65"/>
     </row>
@@ -3075,7 +3075,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="S3" s="46">
         <v>2</v>
@@ -3150,7 +3150,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C4" s="46">
         <v>2</v>
@@ -3211,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="S4" s="46">
         <v>2</v>
@@ -3225,7 +3225,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C5" s="46">
         <v>3</v>
@@ -3296,7 +3296,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C6" s="46">
         <v>4</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C7" s="46">
         <v>5</v>
@@ -3438,7 +3438,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
@@ -3501,7 +3501,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,28 +3521,28 @@
         <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C3" s="46">
         <v>600</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C4" s="46">
         <v>3600</v>
@@ -3655,7 +3655,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>45</v>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -3839,14 +3839,14 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" style="19" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
@@ -3857,7 +3857,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -3874,7 +3874,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>54</v>
@@ -3892,18 +3892,18 @@
         <v>43</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,13 +3911,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>55</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3955,10 +3955,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3966,10 +3966,10 @@
         <v>55</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3980,13 +3980,13 @@
         <v>2026</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,20 +4030,20 @@
         <v>59</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -4062,54 +4062,54 @@
         <v>55</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4161,14 +4161,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E1" s="75"/>
     </row>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AF5F3-0C53-427D-839E-2B5C67578CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF6863-F3A0-44DB-BF09-CA973BAA07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
     <sheet name="#" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>1: "ЗАМЕНИТЬ", 
+          <t>1: "ЗАМЕНИТЬ" или если указана формула, 
 2: "ПРИБАВИТЬ", 
 3: "ВЫЧЕСТЬ", 
 0: "УМНОЖИТЬ"
@@ -1906,20 +1906,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2366,29 +2366,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2770,172 +2770,167 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -2944,6 +2939,11 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF39BC0-5DA2-411E-8461-135EE3EEBCD3}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF6863-F3A0-44DB-BF09-CA973BAA07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C57668-B482-4AF1-8A09-4679EA209DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="6" activeTab="6" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="ТФ пример 2 (pop)" sheetId="9" r:id="rId3"/>
     <sheet name="импорт из моделей" sheetId="5" r:id="rId4"/>
     <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
-    <sheet name="#" sheetId="10" r:id="rId6"/>
+    <sheet name="&lt;коррекция#расчет&gt;" sheetId="10" r:id="rId6"/>
+    <sheet name="НВ" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -981,7 +982,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>pn</t>
   </si>
@@ -1395,6 +1396,108 @@
   </si>
   <si>
     <t>(vetv); (area); (area2); (darea)</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Отключение</t>
+  </si>
+  <si>
+    <t>Ключ откл.</t>
+  </si>
+  <si>
+    <t>Ремонт 1</t>
+  </si>
+  <si>
+    <t>Ключ рем.1</t>
+  </si>
+  <si>
+    <t>Ремонт 2</t>
+  </si>
+  <si>
+    <t>Ключ рем.2</t>
+  </si>
+  <si>
+    <t>Ремонтная схема</t>
+  </si>
+  <si>
+    <t>Схема при отключении</t>
+  </si>
+  <si>
+    <t>- в статусе: режим исключается</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Муравленковская - Надым</t>
+  </si>
+  <si>
+    <t>ip=16102&amp;iq=15132&amp;np=0</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Уренгойская ГРЭС - Тарко-Сале</t>
+  </si>
+  <si>
+    <t>ip=15177&amp;iq=16095&amp;np=0</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Уренгой – УГП-5В</t>
+  </si>
+  <si>
+    <t>ip=15055&amp;iq=15057&amp;np=0</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Уренгой - Пангоды</t>
+  </si>
+  <si>
+    <t>ip=15105&amp;iq=15131&amp;np=0</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Надым - Уренгой</t>
+  </si>
+  <si>
+    <t>ip=15038&amp;iq=15133&amp;np=0</t>
+  </si>
+  <si>
+    <t>Уренгойская ГРЭС: 2СШ 220 кВ</t>
+  </si>
+  <si>
+    <t>ny=15177</t>
+  </si>
+  <si>
+    <t>Уренгойская ГРЭС 1Г-ПТ</t>
+  </si>
+  <si>
+    <t>Num=907</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Уренгойская ГРЭС – Уренгой III цепь</t>
+  </si>
+  <si>
+    <t>ip=15203&amp;iq=15105&amp;np=0</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Уренгойская ГРЭС - Уренгой №1</t>
+  </si>
+  <si>
+    <t>ip=15203&amp;iq=15105&amp;np=1</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Исконная - Уренгой</t>
+  </si>
+  <si>
+    <t>ip=15038&amp;iq=15505&amp;np=0</t>
+  </si>
+  <si>
+    <t>#20,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> после # текст не учитывается</t>
+  </si>
+  <si>
+    <t>Примечание</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,8 +1649,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1587,6 +1697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1906,6 +2022,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1914,12 +2043,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2366,29 +2489,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="59"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2931,6 +3054,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -2939,11 +3067,6 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2975,42 +3098,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="66" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="66" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="64" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="65"/>
+      <c r="T1" s="68"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3500,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF39BC0-5DA2-411E-8461-135EE3EEBCD3}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3696,19 +3819,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3856,18 +3979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -4154,26 +4277,26 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="75"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
+      <c r="A2" s="79"/>
       <c r="B2" s="57">
         <v>0.95</v>
       </c>
@@ -4286,4 +4409,163 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C57668-B482-4AF1-8A09-4679EA209DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D371E3-8FEA-4681-925A-FCDE95EBCC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="6" activeTab="6" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="1" activeTab="5" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
     <sheet name="ТФ пример 1 (pn, qn)" sheetId="8" r:id="rId2"/>
     <sheet name="ТФ пример 2 (pop)" sheetId="9" r:id="rId3"/>
-    <sheet name="импорт из моделей" sheetId="5" r:id="rId4"/>
-    <sheet name="строковая форма" sheetId="6" r:id="rId5"/>
-    <sheet name="&lt;коррекция#расчет&gt;" sheetId="10" r:id="rId6"/>
-    <sheet name="НВ" sheetId="11" r:id="rId7"/>
+    <sheet name="импорт из моделей(ИМ)" sheetId="5" r:id="rId4"/>
+    <sheet name="строковая форма(СФ)" sheetId="6" r:id="rId5"/>
+    <sheet name="импорт таблиц(ИТ)" sheetId="12" r:id="rId6"/>
+    <sheet name="импорт таблиц(ИТ) (2)" sheetId="13" r:id="rId7"/>
+    <sheet name="&lt;коррекция#расчет&gt;" sheetId="10" r:id="rId8"/>
+    <sheet name="НВ" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +91,7 @@
 2: "ПРИБАВИТЬ", 
 3: "ВЫЧЕСТЬ", 
 0: "УМНОЖИТЬ"
-для pop и pp не учитывается</t>
+Для pop и pp не учитывается.</t>
         </r>
       </text>
     </comment>
@@ -981,8 +983,77 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE4E1F01-DC44-43EA-8E07-EB8A862C1A4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>в первой строке (начиная с колонки B) поля в таблице</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7C8AE242-A6BD-4135-B025-48F5B7E53516}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>обновить: 2
+загрузить: 1
+дополнить: 0
+обновить-добавить: 3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7B5C48D9-5086-4BD8-9353-DDA0091B1F64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>обновить: 2
+загрузить: 1
+дополнить: 0
+обновить-добавить: 3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="225">
   <si>
     <t>pn</t>
   </si>
@@ -1498,6 +1569,165 @@
   </si>
   <si>
     <t>Примечание</t>
+  </si>
+  <si>
+    <t>i_dop_ob</t>
+  </si>
+  <si>
+    <t>i_dop</t>
+  </si>
+  <si>
+    <t>n_it</t>
+  </si>
+  <si>
+    <t>i_dop_ob_av</t>
+  </si>
+  <si>
+    <t>i_dop_av</t>
+  </si>
+  <si>
+    <t>n_it_av</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>iq</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>dname</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Возейская-Северный Возей</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Газлифт-Северный Возей</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Инта -Воркута</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Микунь - Синдор</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Микунь- Сыктывкар</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Микунь-Урдома</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печора -Северная</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печора-Усинская с отпайкой на ПС Сыня</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Зеленоборск</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Инта</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Печора № 1</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Печора № 2</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Северная</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС -Усинская с отпайкой на ПС Сыня</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Печорская ГРЭС - Ухта</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Северный Возей -Харьягинская № 2 (ВЛ-282)</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Северный Возей -Харьягинская № 1 (ВЛ-283)</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Усинская -Возейская</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Усинская- Газлифт</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Усинская - Промысловая I цепь (ВЛ-253)</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Усинская - Промысловая II цепь (ВЛ-254)</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Ухта - Зеленоборск</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Ухта -Микунь</t>
+  </si>
+  <si>
+    <t>ВЛ 220 кВ Ухта -Синдор</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Городская -Кожва с отпайками (ВЛ-124)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Печора-Городская с отпайкой на ПС ЖБИ (ВЛ-120)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Печора - Кожва с отпайками (ВЛ-121), участок от ПС 220 кВ Печора до отпайки на ПС 110 кВ Сухой Лог</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Печора - Кожва с отпайками (ВЛ-121), участок от отпайки на ПС 110 кВ Сухой Лог до ПС 110 кВ Кожва</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Сосногорская ТЭЦ - Ухта I цепь (ВЛ-153)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Сосногорская ТЭЦ-Ухта II цепь(ВЛ-154)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК - Микунь II цепь с отпайками (ВЛ-170), участок от ТЭЦ Монди СЛПК до отпайки на ПС 110 кВ Часово</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК - Микунь II цепь с отпайками (ВЛ-170), участок от отпайки на ПС 110 кВ Часово до ПС 220 кВ Микунь</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК - Микунь I цепь с отпайками (ВЛ-171), участок от ТЭЦ Монди СЛПК до отпайки на ПС 110 кВ Часово</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК - Микунь I цепь с отпайками (ВЛ-171), участок от отпайки на ПС 110 кВ Часово до ПС 220 кВ Микунь</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК -Сыктывкар II цепь (ВЛ-160)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ ТЭЦ Монди СЛПК -Сыктывкар I цепь (ВЛ-161)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Воркутинская ТЭЦ-2 -Воркута № 1 (ВЛ-107)</t>
+  </si>
+  <si>
+    <t>ВЛ 110 кВ Воркутинская ТЭЦ-2 -Воркута № 2 (ВЛ-108)</t>
+  </si>
+  <si>
+    <t>Имя таблицы:</t>
+  </si>
+  <si>
+    <t>Тип импорта:</t>
+  </si>
+  <si>
+    <t>graphikIT</t>
+  </si>
+  <si>
+    <t>Idop</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1887,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +1933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,7 +2116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2029,6 +2265,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2086,6 +2328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2489,29 +2733,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="64"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2893,164 +3137,164 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3080,7 +3324,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,42 +3342,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="69" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="69" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="69" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="67" t="s">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="68" t="s">
+      <c r="R1" s="71"/>
+      <c r="S1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="68"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3804,7 +4048,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,19 +4063,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3962,7 +4206,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A22"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3979,18 +4223,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -4273,6 +4517,4503 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC800E4A-CCFA-497D-B7D5-38FABA684990}">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="119" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="64">
+        <v>400</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64">
+        <v>400</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="64">
+        <v>1121</v>
+      </c>
+      <c r="J2" s="64">
+        <v>0</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="64">
+        <v>400</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64">
+        <v>400</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64">
+        <v>1107</v>
+      </c>
+      <c r="I3" s="64">
+        <v>1121</v>
+      </c>
+      <c r="J3" s="64">
+        <v>0</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="64">
+        <v>630</v>
+      </c>
+      <c r="C4" s="64">
+        <v>630</v>
+      </c>
+      <c r="D4" s="64">
+        <v>100</v>
+      </c>
+      <c r="E4" s="64">
+        <v>756</v>
+      </c>
+      <c r="F4" s="64">
+        <v>690</v>
+      </c>
+      <c r="G4" s="64">
+        <v>101</v>
+      </c>
+      <c r="H4" s="64">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64">
+        <v>68</v>
+      </c>
+      <c r="J4" s="64">
+        <v>0</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="64">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="64">
+        <v>690</v>
+      </c>
+      <c r="D5" s="64">
+        <v>102</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64">
+        <v>690</v>
+      </c>
+      <c r="G5" s="64">
+        <v>102</v>
+      </c>
+      <c r="H5" s="64">
+        <v>3005</v>
+      </c>
+      <c r="I5" s="64">
+        <v>3006</v>
+      </c>
+      <c r="J5" s="64">
+        <v>0</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="64">
+        <v>630</v>
+      </c>
+      <c r="C6" s="64">
+        <v>630</v>
+      </c>
+      <c r="D6" s="64">
+        <v>100</v>
+      </c>
+      <c r="E6" s="64">
+        <v>756</v>
+      </c>
+      <c r="F6" s="64">
+        <v>690</v>
+      </c>
+      <c r="G6" s="64">
+        <v>101</v>
+      </c>
+      <c r="H6" s="64">
+        <v>3005</v>
+      </c>
+      <c r="I6" s="64">
+        <v>3085</v>
+      </c>
+      <c r="J6" s="64">
+        <v>0</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="64">
+        <v>630</v>
+      </c>
+      <c r="C7" s="64">
+        <v>630</v>
+      </c>
+      <c r="D7" s="64">
+        <v>103</v>
+      </c>
+      <c r="E7" s="64">
+        <v>756</v>
+      </c>
+      <c r="F7" s="64">
+        <v>710</v>
+      </c>
+      <c r="G7" s="64">
+        <v>104</v>
+      </c>
+      <c r="H7" s="64">
+        <v>3005</v>
+      </c>
+      <c r="I7" s="64">
+        <v>60</v>
+      </c>
+      <c r="J7" s="64">
+        <v>0</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="64">
+        <v>630</v>
+      </c>
+      <c r="C8" s="64">
+        <v>630</v>
+      </c>
+      <c r="D8" s="64">
+        <v>100</v>
+      </c>
+      <c r="E8" s="64">
+        <v>756</v>
+      </c>
+      <c r="F8" s="64">
+        <v>690</v>
+      </c>
+      <c r="G8" s="64">
+        <v>101</v>
+      </c>
+      <c r="H8" s="64">
+        <v>1067</v>
+      </c>
+      <c r="I8" s="64">
+        <v>1030</v>
+      </c>
+      <c r="J8" s="64">
+        <v>0</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="64">
+        <v>630</v>
+      </c>
+      <c r="C9" s="64">
+        <v>630</v>
+      </c>
+      <c r="D9" s="64">
+        <v>100</v>
+      </c>
+      <c r="E9" s="64">
+        <v>756</v>
+      </c>
+      <c r="F9" s="64">
+        <v>690</v>
+      </c>
+      <c r="G9" s="64">
+        <v>101</v>
+      </c>
+      <c r="H9" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="64">
+        <v>1072</v>
+      </c>
+      <c r="J9" s="64">
+        <v>0</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="64">
+        <v>630</v>
+      </c>
+      <c r="C10" s="64">
+        <v>630</v>
+      </c>
+      <c r="D10" s="64">
+        <v>100</v>
+      </c>
+      <c r="E10" s="64">
+        <v>756</v>
+      </c>
+      <c r="F10" s="64">
+        <v>690</v>
+      </c>
+      <c r="G10" s="64">
+        <v>101</v>
+      </c>
+      <c r="H10" s="64">
+        <v>1072</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1080</v>
+      </c>
+      <c r="J10" s="64">
+        <v>0</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="64">
+        <v>630</v>
+      </c>
+      <c r="C11" s="64">
+        <v>630</v>
+      </c>
+      <c r="D11" s="64">
+        <v>100</v>
+      </c>
+      <c r="E11" s="64">
+        <v>756</v>
+      </c>
+      <c r="F11" s="64">
+        <v>690</v>
+      </c>
+      <c r="G11" s="64">
+        <v>101</v>
+      </c>
+      <c r="H11" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="64">
+        <v>2002</v>
+      </c>
+      <c r="J11" s="64">
+        <v>0</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="64">
+        <v>630</v>
+      </c>
+      <c r="C12" s="64">
+        <v>630</v>
+      </c>
+      <c r="D12" s="64">
+        <v>100</v>
+      </c>
+      <c r="E12" s="64">
+        <v>756</v>
+      </c>
+      <c r="F12" s="64">
+        <v>690</v>
+      </c>
+      <c r="G12" s="64">
+        <v>101</v>
+      </c>
+      <c r="H12" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="64">
+        <v>1</v>
+      </c>
+      <c r="J12" s="64">
+        <v>0</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="64">
+        <v>630</v>
+      </c>
+      <c r="C13" s="64">
+        <v>630</v>
+      </c>
+      <c r="D13" s="64">
+        <v>100</v>
+      </c>
+      <c r="E13" s="64">
+        <v>756</v>
+      </c>
+      <c r="F13" s="64">
+        <v>690</v>
+      </c>
+      <c r="G13" s="64">
+        <v>101</v>
+      </c>
+      <c r="H13" s="84">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="84">
+        <v>1067</v>
+      </c>
+      <c r="J13" s="84">
+        <v>1</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="64">
+        <v>630</v>
+      </c>
+      <c r="C14" s="64">
+        <v>630</v>
+      </c>
+      <c r="D14" s="64">
+        <v>100</v>
+      </c>
+      <c r="E14" s="64">
+        <v>756</v>
+      </c>
+      <c r="F14" s="64">
+        <v>690</v>
+      </c>
+      <c r="G14" s="64">
+        <v>101</v>
+      </c>
+      <c r="H14" s="84">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="84">
+        <v>1067</v>
+      </c>
+      <c r="J14" s="84">
+        <v>2</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="64">
+        <v>320</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64">
+        <v>384</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="64">
+        <v>1029</v>
+      </c>
+      <c r="J15" s="64">
+        <v>0</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="64">
+        <v>630</v>
+      </c>
+      <c r="C16" s="64">
+        <v>630</v>
+      </c>
+      <c r="D16" s="64">
+        <v>100</v>
+      </c>
+      <c r="E16" s="64">
+        <v>756</v>
+      </c>
+      <c r="F16" s="64">
+        <v>690</v>
+      </c>
+      <c r="G16" s="64">
+        <v>101</v>
+      </c>
+      <c r="H16" s="64">
+        <v>1067</v>
+      </c>
+      <c r="I16" s="64">
+        <v>1076</v>
+      </c>
+      <c r="J16" s="64">
+        <v>0</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="64">
+        <v>630</v>
+      </c>
+      <c r="C17" s="64">
+        <v>630</v>
+      </c>
+      <c r="D17" s="64">
+        <v>100</v>
+      </c>
+      <c r="E17" s="64">
+        <v>756</v>
+      </c>
+      <c r="F17" s="64">
+        <v>690</v>
+      </c>
+      <c r="G17" s="64">
+        <v>101</v>
+      </c>
+      <c r="H17" s="64">
+        <v>1076</v>
+      </c>
+      <c r="I17" s="64">
+        <v>1080</v>
+      </c>
+      <c r="J17" s="64">
+        <v>0</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="64">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="64">
+        <v>871</v>
+      </c>
+      <c r="D18" s="64">
+        <v>105</v>
+      </c>
+      <c r="E18" s="64">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="64">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="64">
+        <v>106</v>
+      </c>
+      <c r="H18" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="64">
+        <v>2003</v>
+      </c>
+      <c r="J18" s="64">
+        <v>0</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="64">
+        <v>400</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64">
+        <v>400</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64">
+        <v>1121</v>
+      </c>
+      <c r="I19" s="64">
+        <v>1130</v>
+      </c>
+      <c r="J19" s="64">
+        <v>2</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="64">
+        <v>400</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64">
+        <v>400</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64">
+        <v>1121</v>
+      </c>
+      <c r="I20" s="64">
+        <v>1130</v>
+      </c>
+      <c r="J20" s="64">
+        <v>1</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="64">
+        <v>400</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64">
+        <v>400</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64">
+        <v>1080</v>
+      </c>
+      <c r="I21" s="64">
+        <v>1114</v>
+      </c>
+      <c r="J21" s="64">
+        <v>0</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="64">
+        <v>400</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64">
+        <v>400</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64">
+        <v>1080</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1107</v>
+      </c>
+      <c r="J22" s="64">
+        <v>0</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="64">
+        <v>400</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64">
+        <v>400</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64">
+        <v>1080</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1087</v>
+      </c>
+      <c r="J23" s="64">
+        <v>0</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="64">
+        <v>400</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64">
+        <v>400</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64">
+        <v>1080</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1088</v>
+      </c>
+      <c r="J24" s="64">
+        <v>0</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="64">
+        <v>630</v>
+      </c>
+      <c r="C25" s="64">
+        <v>630</v>
+      </c>
+      <c r="D25" s="64">
+        <v>100</v>
+      </c>
+      <c r="E25" s="64">
+        <v>756</v>
+      </c>
+      <c r="F25" s="64">
+        <v>690</v>
+      </c>
+      <c r="G25" s="64">
+        <v>101</v>
+      </c>
+      <c r="H25" s="64">
+        <v>2001</v>
+      </c>
+      <c r="I25" s="64">
+        <v>2003</v>
+      </c>
+      <c r="J25" s="64">
+        <v>0</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="64">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="64">
+        <v>825</v>
+      </c>
+      <c r="D26" s="64">
+        <v>107</v>
+      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64">
+        <v>825</v>
+      </c>
+      <c r="G26" s="64">
+        <v>107</v>
+      </c>
+      <c r="H26" s="64">
+        <v>2003</v>
+      </c>
+      <c r="I26" s="64">
+        <v>3005</v>
+      </c>
+      <c r="J26" s="64">
+        <v>0</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="64">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="64">
+        <v>690</v>
+      </c>
+      <c r="D27" s="64">
+        <v>102</v>
+      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64">
+        <v>690</v>
+      </c>
+      <c r="G27" s="64">
+        <v>102</v>
+      </c>
+      <c r="H27" s="64">
+        <v>2003</v>
+      </c>
+      <c r="I27" s="64">
+        <v>3007</v>
+      </c>
+      <c r="J27" s="64">
+        <v>0</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="64">
+        <v>600</v>
+      </c>
+      <c r="C28" s="64">
+        <v>600</v>
+      </c>
+      <c r="D28" s="64">
+        <v>108</v>
+      </c>
+      <c r="E28" s="64">
+        <v>600</v>
+      </c>
+      <c r="F28" s="64">
+        <v>600</v>
+      </c>
+      <c r="G28" s="64">
+        <v>108</v>
+      </c>
+      <c r="H28" s="64">
+        <v>10</v>
+      </c>
+      <c r="I28" s="64">
+        <v>48</v>
+      </c>
+      <c r="J28" s="64">
+        <v>1</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="64">
+        <v>600</v>
+      </c>
+      <c r="C29" s="64">
+        <v>600</v>
+      </c>
+      <c r="D29" s="64">
+        <v>108</v>
+      </c>
+      <c r="E29" s="64">
+        <v>600</v>
+      </c>
+      <c r="F29" s="64">
+        <v>600</v>
+      </c>
+      <c r="G29" s="64">
+        <v>108</v>
+      </c>
+      <c r="H29" s="64">
+        <v>10</v>
+      </c>
+      <c r="I29" s="64">
+        <v>48</v>
+      </c>
+      <c r="J29" s="64">
+        <v>2</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="64">
+        <v>320</v>
+      </c>
+      <c r="C30" s="64">
+        <v>320</v>
+      </c>
+      <c r="D30" s="64">
+        <v>109</v>
+      </c>
+      <c r="E30" s="64">
+        <v>320</v>
+      </c>
+      <c r="F30" s="64">
+        <v>320</v>
+      </c>
+      <c r="G30" s="64">
+        <v>109</v>
+      </c>
+      <c r="H30" s="64">
+        <v>1062</v>
+      </c>
+      <c r="I30" s="64">
+        <v>1005</v>
+      </c>
+      <c r="J30" s="64">
+        <v>0</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="64">
+        <v>320</v>
+      </c>
+      <c r="C31" s="64">
+        <v>320</v>
+      </c>
+      <c r="D31" s="64">
+        <v>109</v>
+      </c>
+      <c r="E31" s="64">
+        <v>320</v>
+      </c>
+      <c r="F31" s="64">
+        <v>320</v>
+      </c>
+      <c r="G31" s="64">
+        <v>109</v>
+      </c>
+      <c r="H31" s="64">
+        <v>1005</v>
+      </c>
+      <c r="I31" s="64">
+        <v>1012</v>
+      </c>
+      <c r="J31" s="64">
+        <v>0</v>
+      </c>
+      <c r="K31" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="64">
+        <v>320</v>
+      </c>
+      <c r="C32" s="64">
+        <v>320</v>
+      </c>
+      <c r="D32" s="64">
+        <v>109</v>
+      </c>
+      <c r="E32" s="64">
+        <v>320</v>
+      </c>
+      <c r="F32" s="64">
+        <v>320</v>
+      </c>
+      <c r="G32" s="64">
+        <v>109</v>
+      </c>
+      <c r="H32" s="64">
+        <v>1012</v>
+      </c>
+      <c r="I32" s="64">
+        <v>1010</v>
+      </c>
+      <c r="J32" s="64">
+        <v>0</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="64">
+        <v>400</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64">
+        <v>400</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64">
+        <v>1041</v>
+      </c>
+      <c r="I33" s="64">
+        <v>1064</v>
+      </c>
+      <c r="J33" s="64">
+        <v>0</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="64">
+        <v>400</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64">
+        <v>400</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="64">
+        <v>1041</v>
+      </c>
+      <c r="J34" s="64">
+        <v>0</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="64">
+        <v>400</v>
+      </c>
+      <c r="C35" s="64">
+        <v>400</v>
+      </c>
+      <c r="D35" s="64">
+        <v>110</v>
+      </c>
+      <c r="E35" s="64">
+        <v>400</v>
+      </c>
+      <c r="F35" s="64">
+        <v>400</v>
+      </c>
+      <c r="G35" s="64">
+        <v>110</v>
+      </c>
+      <c r="H35" s="64">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="64">
+        <v>1008</v>
+      </c>
+      <c r="J35" s="64">
+        <v>0</v>
+      </c>
+      <c r="K35" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="64">
+        <v>400</v>
+      </c>
+      <c r="C36" s="64">
+        <v>400</v>
+      </c>
+      <c r="D36" s="64">
+        <v>110</v>
+      </c>
+      <c r="E36" s="64">
+        <v>400</v>
+      </c>
+      <c r="F36" s="64">
+        <v>400</v>
+      </c>
+      <c r="G36" s="64">
+        <v>110</v>
+      </c>
+      <c r="H36" s="64">
+        <v>1008</v>
+      </c>
+      <c r="I36" s="64">
+        <v>1011</v>
+      </c>
+      <c r="J36" s="64">
+        <v>0</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="64">
+        <v>320</v>
+      </c>
+      <c r="C37" s="64">
+        <v>320</v>
+      </c>
+      <c r="D37" s="64">
+        <v>109</v>
+      </c>
+      <c r="E37" s="64">
+        <v>320</v>
+      </c>
+      <c r="F37" s="64">
+        <v>320</v>
+      </c>
+      <c r="G37" s="64">
+        <v>109</v>
+      </c>
+      <c r="H37" s="64">
+        <v>1011</v>
+      </c>
+      <c r="I37" s="64">
+        <v>1010</v>
+      </c>
+      <c r="J37" s="64">
+        <v>0</v>
+      </c>
+      <c r="K37" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="64">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="64">
+        <v>960</v>
+      </c>
+      <c r="D38" s="64">
+        <v>111</v>
+      </c>
+      <c r="E38" s="64">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="64">
+        <v>960</v>
+      </c>
+      <c r="G38" s="64">
+        <v>111</v>
+      </c>
+      <c r="H38" s="64">
+        <v>2006</v>
+      </c>
+      <c r="I38" s="64">
+        <v>2010</v>
+      </c>
+      <c r="J38" s="64">
+        <v>1</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="64">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="64">
+        <v>960</v>
+      </c>
+      <c r="D39" s="64">
+        <v>111</v>
+      </c>
+      <c r="E39" s="64">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="64">
+        <v>960</v>
+      </c>
+      <c r="G39" s="64">
+        <v>111</v>
+      </c>
+      <c r="H39" s="64">
+        <v>2006</v>
+      </c>
+      <c r="I39" s="64">
+        <v>2010</v>
+      </c>
+      <c r="J39" s="64">
+        <v>2</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="L39" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="64">
+        <v>400</v>
+      </c>
+      <c r="C40" s="64">
+        <v>390</v>
+      </c>
+      <c r="D40" s="64">
+        <v>112</v>
+      </c>
+      <c r="E40" s="64">
+        <v>480</v>
+      </c>
+      <c r="F40" s="64">
+        <v>456</v>
+      </c>
+      <c r="G40" s="64">
+        <v>113</v>
+      </c>
+      <c r="H40" s="85">
+        <v>3015</v>
+      </c>
+      <c r="I40" s="85">
+        <v>3020</v>
+      </c>
+      <c r="J40" s="85">
+        <v>0</v>
+      </c>
+      <c r="K40" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="L40" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="64">
+        <v>600</v>
+      </c>
+      <c r="C41" s="64">
+        <v>390</v>
+      </c>
+      <c r="D41" s="64">
+        <v>114</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64">
+        <v>456</v>
+      </c>
+      <c r="G41" s="64">
+        <v>115</v>
+      </c>
+      <c r="H41" s="85">
+        <v>3094</v>
+      </c>
+      <c r="I41" s="85">
+        <v>3114</v>
+      </c>
+      <c r="J41" s="85">
+        <v>0</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="64">
+        <v>400</v>
+      </c>
+      <c r="C42" s="64">
+        <v>390</v>
+      </c>
+      <c r="D42" s="64">
+        <v>112</v>
+      </c>
+      <c r="E42" s="64">
+        <v>480</v>
+      </c>
+      <c r="F42" s="64">
+        <v>456</v>
+      </c>
+      <c r="G42" s="64">
+        <v>113</v>
+      </c>
+      <c r="H42" s="84">
+        <v>3018</v>
+      </c>
+      <c r="I42" s="84">
+        <v>3020</v>
+      </c>
+      <c r="J42" s="84">
+        <v>0</v>
+      </c>
+      <c r="K42" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="64">
+        <v>600</v>
+      </c>
+      <c r="C43" s="64">
+        <v>390</v>
+      </c>
+      <c r="D43" s="64">
+        <v>114</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64">
+        <v>456</v>
+      </c>
+      <c r="G43" s="64">
+        <v>115</v>
+      </c>
+      <c r="H43" s="84">
+        <v>3083</v>
+      </c>
+      <c r="I43" s="84">
+        <v>3114</v>
+      </c>
+      <c r="J43" s="84">
+        <v>0</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="64">
+        <v>600</v>
+      </c>
+      <c r="C44" s="64">
+        <v>600</v>
+      </c>
+      <c r="D44" s="64">
+        <v>108</v>
+      </c>
+      <c r="E44" s="64">
+        <v>720</v>
+      </c>
+      <c r="F44" s="64">
+        <v>605</v>
+      </c>
+      <c r="G44" s="64">
+        <v>116</v>
+      </c>
+      <c r="H44" s="64">
+        <v>3131</v>
+      </c>
+      <c r="I44" s="64">
+        <v>3020</v>
+      </c>
+      <c r="J44" s="64">
+        <v>2</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="64">
+        <v>600</v>
+      </c>
+      <c r="C45" s="64">
+        <v>600</v>
+      </c>
+      <c r="D45" s="64">
+        <v>108</v>
+      </c>
+      <c r="E45" s="64">
+        <v>720</v>
+      </c>
+      <c r="F45" s="64">
+        <v>605</v>
+      </c>
+      <c r="G45" s="64">
+        <v>116</v>
+      </c>
+      <c r="H45" s="64">
+        <v>3131</v>
+      </c>
+      <c r="I45" s="64">
+        <v>3020</v>
+      </c>
+      <c r="J45" s="64">
+        <v>1</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="L45" s="64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4526B1F2-E2A1-4946-8132-EDB9710520AC}">
+  <dimension ref="A1:D268"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>-6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>0.96349206349206351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0.96349206349206351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>-6</v>
+      </c>
+      <c r="D16">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>101</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1.0956521739130434</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>101</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1.0492753623188407</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>1.0492753623188407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>0.87971014492753619</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>0.87971014492753619</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>0.80869565217391304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>101</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>0.80869565217391304</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>-5</v>
+      </c>
+      <c r="D31">
+        <v>1.2898550724637681</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>102</v>
+      </c>
+      <c r="C32">
+        <v>-6</v>
+      </c>
+      <c r="D32">
+        <v>1.2898550724637681</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1.2391304347826086</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>-4</v>
+      </c>
+      <c r="D34">
+        <v>1.2391304347826086</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>102</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>1.1492753623188405</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1.1492753623188405</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>1.1086956521739131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1.1086956521739131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>1.0492753623188407</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>1.0492753623188407</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>102</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>102</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>0.93913043478260871</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>102</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>0.87971014492753619</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>102</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>0.87971014492753619</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>0.80869565217391304</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>0.80869565217391304</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>-5</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <v>-6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>103</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>103</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>103</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>0.99206349206349209</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>103</v>
+      </c>
+      <c r="C61">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>0.99206349206349209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>103</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
+      </c>
+      <c r="D62">
+        <v>0.91269841269841268</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>103</v>
+      </c>
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>0.91269841269841268</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>104</v>
+      </c>
+      <c r="C64">
+        <v>-5</v>
+      </c>
+      <c r="D64">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>104</v>
+      </c>
+      <c r="C65">
+        <v>-6</v>
+      </c>
+      <c r="D65">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>104</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>104</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>104</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>1.0647887323943661</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>104</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>1.0492957746478873</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>104</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>1.0492957746478873</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>104</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>104</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>0.93943661971830983</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>104</v>
+      </c>
+      <c r="C75">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>0.93943661971830983</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>104</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76">
+        <v>0.88028169014084512</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>104</v>
+      </c>
+      <c r="C77">
+        <v>31</v>
+      </c>
+      <c r="D77">
+        <v>0.88028169014084512</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>104</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>0.8098591549295775</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>36</v>
+      </c>
+      <c r="D79">
+        <v>0.8098591549295775</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-5</v>
+      </c>
+      <c r="D80">
+        <v>1.1481056257175659</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>105</v>
+      </c>
+      <c r="C81">
+        <v>-6</v>
+      </c>
+      <c r="D81">
+        <v>1.1481056257175659</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>105</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1.1481056257175659</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>105</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1.1481056257175659</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>105</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>1.1481056257175659</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>1.1389207807118256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>105</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1.1389207807118256</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>1.071182548794489</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>1.071182548794489</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>105</v>
+      </c>
+      <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>35</v>
+      </c>
+      <c r="D93">
+        <v>0.8450057405281286</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>31</v>
+      </c>
+      <c r="D94">
+        <v>0.8450057405281286</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>105</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>0.75660160734787596</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>36</v>
+      </c>
+      <c r="D96">
+        <v>0.75660160734787596</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>106</v>
+      </c>
+      <c r="C97">
+        <v>-5</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>106</v>
+      </c>
+      <c r="C98">
+        <v>-6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>106</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>106</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>106</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>106</v>
+      </c>
+      <c r="C106">
+        <v>35</v>
+      </c>
+      <c r="D106">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>31</v>
+      </c>
+      <c r="D107">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <v>36</v>
+      </c>
+      <c r="D109">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110">
+        <v>-5</v>
+      </c>
+      <c r="D110">
+        <v>1.2896969696969698</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>107</v>
+      </c>
+      <c r="C111">
+        <v>-6</v>
+      </c>
+      <c r="D111">
+        <v>1.2896969696969698</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>107</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1.2472727272727273</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>107</v>
+      </c>
+      <c r="C113">
+        <v>-4</v>
+      </c>
+      <c r="D113">
+        <v>1.2472727272727273</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>107</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>107</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>107</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>1.1490909090909092</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>107</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>1.1490909090909092</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>107</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>1.1090909090909091</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>107</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>1.1090909090909091</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>107</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>1.0496969696969698</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>107</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>1.0496969696969698</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>107</v>
+      </c>
+      <c r="C122">
+        <v>25</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>107</v>
+      </c>
+      <c r="C123">
+        <v>21</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>107</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>107</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>107</v>
+      </c>
+      <c r="C126">
+        <v>35</v>
+      </c>
+      <c r="D126">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>107</v>
+      </c>
+      <c r="C127">
+        <v>31</v>
+      </c>
+      <c r="D127">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>107</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+      <c r="D128">
+        <v>0.80969696969696969</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>107</v>
+      </c>
+      <c r="C129">
+        <v>36</v>
+      </c>
+      <c r="D129">
+        <v>0.80969696969696969</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>108</v>
+      </c>
+      <c r="C130">
+        <v>-5</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>108</v>
+      </c>
+      <c r="C131">
+        <v>-6</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>108</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>108</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>108</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>108</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>108</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>108</v>
+      </c>
+      <c r="C137">
+        <v>25</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>108</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>108</v>
+      </c>
+      <c r="C139">
+        <v>26</v>
+      </c>
+      <c r="D139">
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>108</v>
+      </c>
+      <c r="C140">
+        <v>35</v>
+      </c>
+      <c r="D140">
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>108</v>
+      </c>
+      <c r="C141">
+        <v>31</v>
+      </c>
+      <c r="D141">
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>108</v>
+      </c>
+      <c r="C142">
+        <v>40</v>
+      </c>
+      <c r="D142">
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>108</v>
+      </c>
+      <c r="C143">
+        <v>36</v>
+      </c>
+      <c r="D143">
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>109</v>
+      </c>
+      <c r="C144">
+        <v>-5</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>109</v>
+      </c>
+      <c r="C145">
+        <v>-6</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>109</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>109</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>109</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>109</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>109</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>109</v>
+      </c>
+      <c r="C151">
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>109</v>
+      </c>
+      <c r="C152">
+        <v>30</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>109</v>
+      </c>
+      <c r="C153">
+        <v>35</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>109</v>
+      </c>
+      <c r="C154">
+        <v>40</v>
+      </c>
+      <c r="D154">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>109</v>
+      </c>
+      <c r="C155">
+        <v>36</v>
+      </c>
+      <c r="D155">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>110</v>
+      </c>
+      <c r="C156">
+        <v>-5</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>110</v>
+      </c>
+      <c r="C157">
+        <v>-6</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>110</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>110</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>110</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>110</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>110</v>
+      </c>
+      <c r="C162">
+        <v>20</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>110</v>
+      </c>
+      <c r="C163">
+        <v>25</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>110</v>
+      </c>
+      <c r="C164">
+        <v>30</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>110</v>
+      </c>
+      <c r="C165">
+        <v>35</v>
+      </c>
+      <c r="D165">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>110</v>
+      </c>
+      <c r="C166">
+        <v>31</v>
+      </c>
+      <c r="D166">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>110</v>
+      </c>
+      <c r="C167">
+        <v>40</v>
+      </c>
+      <c r="D167">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>110</v>
+      </c>
+      <c r="C168">
+        <v>36</v>
+      </c>
+      <c r="D168">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>111</v>
+      </c>
+      <c r="C169">
+        <v>-5</v>
+      </c>
+      <c r="D169">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>111</v>
+      </c>
+      <c r="C170">
+        <v>-6</v>
+      </c>
+      <c r="D170">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>111</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>111</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>111</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>111</v>
+      </c>
+      <c r="C174">
+        <v>15</v>
+      </c>
+      <c r="D174">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>111</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>111</v>
+      </c>
+      <c r="C176">
+        <v>25</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>111</v>
+      </c>
+      <c r="C177">
+        <v>21</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>111</v>
+      </c>
+      <c r="C178">
+        <v>30</v>
+      </c>
+      <c r="D178">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>111</v>
+      </c>
+      <c r="C179">
+        <v>26</v>
+      </c>
+      <c r="D179">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>111</v>
+      </c>
+      <c r="C180">
+        <v>35</v>
+      </c>
+      <c r="D180">
+        <v>0.88020833333333337</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>111</v>
+      </c>
+      <c r="C181">
+        <v>31</v>
+      </c>
+      <c r="D181">
+        <v>0.88020833333333337</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>111</v>
+      </c>
+      <c r="C182">
+        <v>40</v>
+      </c>
+      <c r="D182">
+        <v>0.80937499999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>111</v>
+      </c>
+      <c r="C183">
+        <v>36</v>
+      </c>
+      <c r="D183">
+        <v>0.80937499999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>112</v>
+      </c>
+      <c r="C184">
+        <v>-5</v>
+      </c>
+      <c r="D184">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>112</v>
+      </c>
+      <c r="C185">
+        <v>-6</v>
+      </c>
+      <c r="D185">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>112</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>112</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>112</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>112</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>112</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+      <c r="D190">
+        <v>1.0256410256410255</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>112</v>
+      </c>
+      <c r="C191">
+        <v>25</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>112</v>
+      </c>
+      <c r="C192">
+        <v>21</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>112</v>
+      </c>
+      <c r="C193">
+        <v>30</v>
+      </c>
+      <c r="D193">
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>112</v>
+      </c>
+      <c r="C194">
+        <v>26</v>
+      </c>
+      <c r="D194">
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>112</v>
+      </c>
+      <c r="C195">
+        <v>35</v>
+      </c>
+      <c r="D195">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>112</v>
+      </c>
+      <c r="C196">
+        <v>31</v>
+      </c>
+      <c r="D196">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>112</v>
+      </c>
+      <c r="C197">
+        <v>40</v>
+      </c>
+      <c r="D197">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>113</v>
+      </c>
+      <c r="C198">
+        <v>-5</v>
+      </c>
+      <c r="D198">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>113</v>
+      </c>
+      <c r="C199">
+        <v>-6</v>
+      </c>
+      <c r="D199">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>113</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>113</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>113</v>
+      </c>
+      <c r="C202">
+        <v>10</v>
+      </c>
+      <c r="D202">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>113</v>
+      </c>
+      <c r="C203">
+        <v>15</v>
+      </c>
+      <c r="D203">
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>113</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="D204">
+        <v>1.0438596491228069</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>113</v>
+      </c>
+      <c r="C205">
+        <v>16</v>
+      </c>
+      <c r="D205">
+        <v>1.0438596491228069</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>113</v>
+      </c>
+      <c r="C206">
+        <v>25</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>113</v>
+      </c>
+      <c r="C207">
+        <v>21</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>113</v>
+      </c>
+      <c r="C208">
+        <v>30</v>
+      </c>
+      <c r="D208">
+        <v>0.95394736842105265</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>113</v>
+      </c>
+      <c r="C209">
+        <v>26</v>
+      </c>
+      <c r="D209">
+        <v>0.95394736842105265</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>113</v>
+      </c>
+      <c r="C210">
+        <v>35</v>
+      </c>
+      <c r="D210">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>113</v>
+      </c>
+      <c r="C211">
+        <v>31</v>
+      </c>
+      <c r="D211">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>113</v>
+      </c>
+      <c r="C212">
+        <v>40</v>
+      </c>
+      <c r="D212">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>114</v>
+      </c>
+      <c r="C213">
+        <v>-5</v>
+      </c>
+      <c r="D213">
+        <v>1.2897435897435898</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>114</v>
+      </c>
+      <c r="C214">
+        <v>-6</v>
+      </c>
+      <c r="D214">
+        <v>1.2897435897435898</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>114</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1.2384615384615385</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>114</v>
+      </c>
+      <c r="C216">
+        <v>-4</v>
+      </c>
+      <c r="D216">
+        <v>1.2384615384615385</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>114</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>114</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>114</v>
+      </c>
+      <c r="C219">
+        <v>10</v>
+      </c>
+      <c r="D219">
+        <v>1.1487179487179486</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>114</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>1.1487179487179486</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>114</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>1.1076923076923078</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>114</v>
+      </c>
+      <c r="C222">
+        <v>11</v>
+      </c>
+      <c r="D222">
+        <v>1.1076923076923078</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>114</v>
+      </c>
+      <c r="C223">
+        <v>20</v>
+      </c>
+      <c r="D223">
+        <v>1.0487179487179488</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>114</v>
+      </c>
+      <c r="C224">
+        <v>16</v>
+      </c>
+      <c r="D224">
+        <v>1.0487179487179488</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>114</v>
+      </c>
+      <c r="C225">
+        <v>25</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>114</v>
+      </c>
+      <c r="C226">
+        <v>21</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>114</v>
+      </c>
+      <c r="C227">
+        <v>30</v>
+      </c>
+      <c r="D227">
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>114</v>
+      </c>
+      <c r="C228">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>114</v>
+      </c>
+      <c r="C229">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>114</v>
+      </c>
+      <c r="C230">
+        <v>31</v>
+      </c>
+      <c r="D230">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>114</v>
+      </c>
+      <c r="C231">
+        <v>40</v>
+      </c>
+      <c r="D231">
+        <v>0.87948717948717947</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>115</v>
+      </c>
+      <c r="C232">
+        <v>-5</v>
+      </c>
+      <c r="D232">
+        <v>1.2456140350877194</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>115</v>
+      </c>
+      <c r="C233">
+        <v>-6</v>
+      </c>
+      <c r="D233">
+        <v>1.2456140350877194</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>115</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>1.2061403508771931</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>115</v>
+      </c>
+      <c r="C235">
+        <v>-4</v>
+      </c>
+      <c r="D235">
+        <v>1.2061403508771931</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>115</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>115</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>115</v>
+      </c>
+      <c r="C238">
+        <v>10</v>
+      </c>
+      <c r="D238">
+        <v>1.1271929824561404</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>115</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>1.1271929824561404</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>115</v>
+      </c>
+      <c r="C240">
+        <v>15</v>
+      </c>
+      <c r="D240">
+        <v>1.0855263157894737</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>115</v>
+      </c>
+      <c r="C241">
+        <v>11</v>
+      </c>
+      <c r="D241">
+        <v>1.0855263157894737</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>115</v>
+      </c>
+      <c r="C242">
+        <v>20</v>
+      </c>
+      <c r="D242">
+        <v>1.0438596491228069</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>115</v>
+      </c>
+      <c r="C243">
+        <v>16</v>
+      </c>
+      <c r="D243">
+        <v>1.0438596491228069</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>115</v>
+      </c>
+      <c r="C244">
+        <v>25</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>115</v>
+      </c>
+      <c r="C245">
+        <v>21</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>115</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>0.95394736842105265</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>115</v>
+      </c>
+      <c r="C247">
+        <v>26</v>
+      </c>
+      <c r="D247">
+        <v>0.95394736842105265</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>115</v>
+      </c>
+      <c r="C248">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>115</v>
+      </c>
+      <c r="C249">
+        <v>31</v>
+      </c>
+      <c r="D249">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>115</v>
+      </c>
+      <c r="C250">
+        <v>40</v>
+      </c>
+      <c r="D250">
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>116</v>
+      </c>
+      <c r="C251">
+        <v>-5</v>
+      </c>
+      <c r="D251">
+        <v>1.1900826446280992</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>116</v>
+      </c>
+      <c r="C252">
+        <v>-6</v>
+      </c>
+      <c r="D252">
+        <v>1.1900826446280992</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>116</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1.1900826446280992</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>116</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <v>1.1900826446280992</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>116</v>
+      </c>
+      <c r="C255">
+        <v>10</v>
+      </c>
+      <c r="D255">
+        <v>1.1487603305785123</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>116</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>1.1487603305785123</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>116</v>
+      </c>
+      <c r="C257">
+        <v>15</v>
+      </c>
+      <c r="D257">
+        <v>1.1090909090909091</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>116</v>
+      </c>
+      <c r="C258">
+        <v>11</v>
+      </c>
+      <c r="D258">
+        <v>1.1090909090909091</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>116</v>
+      </c>
+      <c r="C259">
+        <v>20</v>
+      </c>
+      <c r="D259">
+        <v>1.0495867768595042</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>116</v>
+      </c>
+      <c r="C260">
+        <v>16</v>
+      </c>
+      <c r="D260">
+        <v>1.0495867768595042</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>116</v>
+      </c>
+      <c r="C261">
+        <v>25</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>116</v>
+      </c>
+      <c r="C262">
+        <v>21</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>116</v>
+      </c>
+      <c r="C263">
+        <v>30</v>
+      </c>
+      <c r="D263">
+        <v>0.93884297520661153</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>116</v>
+      </c>
+      <c r="C264">
+        <v>26</v>
+      </c>
+      <c r="D264">
+        <v>0.93884297520661153</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>116</v>
+      </c>
+      <c r="C265">
+        <v>35</v>
+      </c>
+      <c r="D265">
+        <v>0.87933884297520659</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>116</v>
+      </c>
+      <c r="C266">
+        <v>31</v>
+      </c>
+      <c r="D266">
+        <v>0.87933884297520659</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>116</v>
+      </c>
+      <c r="C267">
+        <v>40</v>
+      </c>
+      <c r="D267">
+        <v>0.80991735537190079</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>116</v>
+      </c>
+      <c r="C268">
+        <v>36</v>
+      </c>
+      <c r="D268">
+        <v>0.80991735537190079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ECBDA0-65DA-4B14-A52A-EAA2E225898E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4283,20 +9024,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="78"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="57">
         <v>0.95</v>
       </c>
@@ -4411,12 +9152,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D371E3-8FEA-4681-925A-FCDE95EBCC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D8FBA-C646-4196-BC98-C2179D8B8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="1" activeTab="5" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="2" activeTab="8" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -423,7 +423,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Выполнять если утверждение верно. Несколько условий разделяются знаком "|".</t>
+          <t>Выполнять если утверждение верно. Несколько условий разделяются знаком "&amp;".</t>
         </r>
       </text>
     </comment>
@@ -783,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{3C4A5264-501D-4DB6-9C12-150E33C3999D}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{3C4A5264-501D-4DB6-9C12-150E33C3999D}">
       <text>
         <r>
           <rPr>
@@ -965,7 +965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{12F3AB5E-86D7-4ABF-BC6C-6EACD278B6C6}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{12F3AB5E-86D7-4ABF-BC6C-6EACD278B6C6}">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1053,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
   <si>
     <t>pn</t>
   </si>
@@ -1187,9 +1187,6 @@
     <t>Доп. Имя</t>
   </si>
   <si>
-    <t>node;vetv;Generator</t>
-  </si>
-  <si>
     <t>sel</t>
   </si>
   <si>
@@ -1256,21 +1253,6 @@
     <t>макс</t>
   </si>
   <si>
-    <t>номинальные напряжения</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ns=1 </t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>node vetv Generator</t>
-  </si>
-  <si>
     <t>vzd=121</t>
   </si>
   <si>
@@ -1280,18 +1262,6 @@
     <t>-41°C</t>
   </si>
   <si>
-    <t>#экспорт excel - доделать</t>
-  </si>
-  <si>
-    <t>#импорт excel - доделать</t>
-  </si>
-  <si>
-    <t>#сечение - доделать</t>
-  </si>
-  <si>
-    <t>#удалить пустые записи в таблицах - доделать</t>
-  </si>
-  <si>
     <t>(vetv)</t>
   </si>
   <si>
@@ -1379,9 +1349,6 @@
     <t>I:\rastr_add\test\файлы импорта\файл для импорт.rg2</t>
   </si>
   <si>
-    <t>node;vetv</t>
-  </si>
-  <si>
     <t>I:\rastr_add\test\имя файла нестандартного формата.rg2</t>
   </si>
   <si>
@@ -1406,21 +1373,12 @@
     <t>Выборка в таблицах</t>
   </si>
   <si>
-    <t>Утверждение</t>
-  </si>
-  <si>
     <t>ny=15301</t>
   </si>
   <si>
     <t>pg=14</t>
   </si>
   <si>
-    <t>ny=15302: vras&gt;525.5|ny=15302: vras&lt;100</t>
-  </si>
-  <si>
-    <t>15301: vras&lt;525.5|15301: vras&gt;100</t>
-  </si>
-  <si>
     <t>15049</t>
   </si>
   <si>
@@ -1728,6 +1686,24 @@
   </si>
   <si>
     <t>Num</t>
+  </si>
+  <si>
+    <t>Условие</t>
+  </si>
+  <si>
+    <t>напряжения</t>
+  </si>
+  <si>
+    <t>node,vetv</t>
+  </si>
+  <si>
+    <t>node,vetv,Generator</t>
+  </si>
+  <si>
+    <t>(ny=15302: vras&gt;525.5)&amp;(ny=15302: vras&lt;100)</t>
+  </si>
+  <si>
+    <t>(15301: vras&lt;525.5)&amp;(15301: vras&gt;100)</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2169,9 +2145,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2271,6 +2244,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2328,24 +2303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{BAC40F9C-F7E1-4AAB-A852-D2B174D8F2E0}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2728,91 +2691,91 @@
     <col min="16" max="16" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="42" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40">
-        <v>1</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="69" t="s">
+    <row r="1" spans="1:16" s="41" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="45" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="69"/>
+      <c r="P1" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="H2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>15504</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="6"/>
@@ -2828,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2847,10 +2810,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="6"/>
@@ -2865,7 +2828,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2884,10 +2847,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6"/>
@@ -2907,10 +2870,10 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="6"/>
@@ -2930,10 +2893,10 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4"/>
@@ -2953,10 +2916,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4"/>
@@ -2976,10 +2939,10 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4"/>
@@ -2999,10 +2962,10 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4"/>
@@ -3022,10 +2985,10 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4">
@@ -3045,10 +3008,10 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="4">
@@ -3068,10 +3031,10 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="4"/>
@@ -3091,10 +3054,10 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="6"/>
@@ -3114,10 +3077,10 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6"/>
@@ -3137,164 +3100,164 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="A16" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="A17" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
+      <c r="A18" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
+      <c r="A19" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
+      <c r="A20" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="A21" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
+      <c r="A22" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
+      <c r="A23" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3337,47 +3300,47 @@
     <col min="19" max="20" width="5.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="70" t="s">
+    <row r="1" spans="1:20" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="72"/>
+      <c r="I1" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="72"/>
+      <c r="S1" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="72"/>
+      <c r="T1" s="73"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3441,17 +3404,17 @@
       <c r="A3" s="11">
         <v>15149</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="45">
         <v>1</v>
       </c>
       <c r="D3" s="5">
         <f>C3*0.4</f>
         <v>0.4</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <f>C3*1.1</f>
         <v>1.1000000000000001</v>
       </c>
@@ -3459,7 +3422,7 @@
         <f>E3*0.4</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <f t="shared" ref="G3:G7" si="0">E3*1.1</f>
         <v>1.2100000000000002</v>
       </c>
@@ -3467,7 +3430,7 @@
         <f t="shared" ref="H3" si="1">G3*0.4</f>
         <v>0.4840000000000001</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="45">
         <f t="shared" ref="I3:I7" si="2">G3*1.1</f>
         <v>1.3310000000000004</v>
       </c>
@@ -3475,7 +3438,7 @@
         <f t="shared" ref="J3" si="3">I3*0.4</f>
         <v>0.53240000000000021</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="45">
         <f t="shared" ref="K3:K7" si="4">I3*1.1</f>
         <v>1.4641000000000006</v>
       </c>
@@ -3483,7 +3446,7 @@
         <f t="shared" ref="L3" si="5">K3*0.4</f>
         <v>0.58564000000000027</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="45">
         <f t="shared" ref="M3:M7" si="6">K3*1.1</f>
         <v>1.6105100000000008</v>
       </c>
@@ -3491,7 +3454,7 @@
         <f t="shared" ref="N3" si="7">M3*0.4</f>
         <v>0.64420400000000033</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="45">
         <f t="shared" ref="O3:O7" si="8">M3*1.1</f>
         <v>1.7715610000000011</v>
       </c>
@@ -3503,9 +3466,9 @@
         <v>10</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S3" s="46">
+        <v>102</v>
+      </c>
+      <c r="S3" s="45">
         <v>2</v>
       </c>
       <c r="T3" s="5">
@@ -3516,17 +3479,17 @@
       <c r="A4" s="12">
         <v>15150</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="45">
         <v>2</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:F7" si="10">C4*0.4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <f t="shared" ref="E4:E7" si="11">C4*1.1</f>
         <v>2.2000000000000002</v>
       </c>
@@ -3534,7 +3497,7 @@
         <f t="shared" si="10"/>
         <v>0.88000000000000012</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <f t="shared" si="0"/>
         <v>2.4200000000000004</v>
       </c>
@@ -3542,7 +3505,7 @@
         <f t="shared" ref="H4" si="12">G4*0.4</f>
         <v>0.96800000000000019</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="45">
         <f t="shared" si="2"/>
         <v>2.6620000000000008</v>
       </c>
@@ -3550,7 +3513,7 @@
         <f t="shared" ref="J4" si="13">I4*0.4</f>
         <v>1.0648000000000004</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="45">
         <f t="shared" si="4"/>
         <v>2.9282000000000012</v>
       </c>
@@ -3558,7 +3521,7 @@
         <f t="shared" ref="L4" si="14">K4*0.4</f>
         <v>1.1712800000000005</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="45">
         <f t="shared" si="6"/>
         <v>3.2210200000000015</v>
       </c>
@@ -3566,7 +3529,7 @@
         <f t="shared" ref="N4" si="15">M4*0.4</f>
         <v>1.2884080000000007</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <f t="shared" si="8"/>
         <v>3.5431220000000021</v>
       </c>
@@ -3578,9 +3541,9 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4" s="46">
+        <v>102</v>
+      </c>
+      <c r="S4" s="45">
         <v>2</v>
       </c>
       <c r="T4" s="5">
@@ -3591,17 +3554,17 @@
       <c r="A5" s="7">
         <v>15151</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B5" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="45">
         <v>3</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="10"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <f t="shared" si="11"/>
         <v>3.3000000000000003</v>
       </c>
@@ -3609,7 +3572,7 @@
         <f t="shared" si="10"/>
         <v>1.3200000000000003</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <f t="shared" si="0"/>
         <v>3.6300000000000008</v>
       </c>
@@ -3617,7 +3580,7 @@
         <f t="shared" ref="H5" si="17">G5*0.4</f>
         <v>1.4520000000000004</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="45">
         <f t="shared" si="2"/>
         <v>3.9930000000000012</v>
       </c>
@@ -3625,7 +3588,7 @@
         <f t="shared" ref="J5" si="18">I5*0.4</f>
         <v>1.5972000000000006</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="45">
         <f t="shared" si="4"/>
         <v>4.3923000000000014</v>
       </c>
@@ -3633,7 +3596,7 @@
         <f t="shared" ref="L5" si="19">K5*0.4</f>
         <v>1.7569200000000007</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="45">
         <f t="shared" si="6"/>
         <v>4.8315300000000017</v>
       </c>
@@ -3641,7 +3604,7 @@
         <f t="shared" ref="N5" si="20">M5*0.4</f>
         <v>1.9326120000000007</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <f t="shared" si="8"/>
         <v>5.3146830000000023</v>
       </c>
@@ -3651,7 +3614,7 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="46">
+      <c r="S5" s="45">
         <v>2</v>
       </c>
       <c r="T5" s="5">
@@ -3662,17 +3625,17 @@
       <c r="A6" s="8">
         <v>15152</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="B6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="45">
         <v>4</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <f t="shared" si="11"/>
         <v>4.4000000000000004</v>
       </c>
@@ -3680,7 +3643,7 @@
         <f t="shared" si="10"/>
         <v>1.7600000000000002</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <f t="shared" si="0"/>
         <v>4.8400000000000007</v>
       </c>
@@ -3688,7 +3651,7 @@
         <f t="shared" ref="H6" si="22">G6*0.4</f>
         <v>1.9360000000000004</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <f t="shared" si="2"/>
         <v>5.3240000000000016</v>
       </c>
@@ -3696,7 +3659,7 @@
         <f t="shared" ref="J6" si="23">I6*0.4</f>
         <v>2.1296000000000008</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="45">
         <f t="shared" si="4"/>
         <v>5.8564000000000025</v>
       </c>
@@ -3704,7 +3667,7 @@
         <f t="shared" ref="L6" si="24">K6*0.4</f>
         <v>2.3425600000000011</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="45">
         <f t="shared" si="6"/>
         <v>6.4420400000000031</v>
       </c>
@@ -3712,7 +3675,7 @@
         <f t="shared" ref="N6" si="25">M6*0.4</f>
         <v>2.5768160000000013</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <f t="shared" si="8"/>
         <v>7.0862440000000042</v>
       </c>
@@ -3722,7 +3685,7 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="46">
+      <c r="S6" s="45">
         <v>2</v>
       </c>
       <c r="T6" s="5">
@@ -3733,17 +3696,17 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="B7" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="45">
         <v>5</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
@@ -3751,7 +3714,7 @@
         <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <f t="shared" si="0"/>
         <v>6.0500000000000007</v>
       </c>
@@ -3759,7 +3722,7 @@
         <f t="shared" ref="H7" si="27">G7*0.4</f>
         <v>2.4200000000000004</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="45">
         <f t="shared" si="2"/>
         <v>6.6550000000000011</v>
       </c>
@@ -3767,7 +3730,7 @@
         <f t="shared" ref="J7" si="28">I7*0.4</f>
         <v>2.6620000000000008</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="45">
         <f t="shared" si="4"/>
         <v>7.3205000000000018</v>
       </c>
@@ -3775,7 +3738,7 @@
         <f t="shared" ref="L7" si="29">K7*0.4</f>
         <v>2.9282000000000008</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="45">
         <f t="shared" si="6"/>
         <v>8.0525500000000019</v>
       </c>
@@ -3783,7 +3746,7 @@
         <f t="shared" ref="N7" si="30">M7*0.4</f>
         <v>3.2210200000000011</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <f t="shared" si="8"/>
         <v>8.8578050000000026</v>
       </c>
@@ -3793,7 +3756,7 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="46">
+      <c r="S7" s="45">
         <v>2</v>
       </c>
       <c r="T7" s="5">
@@ -3804,40 +3767,40 @@
       <c r="A8" s="1">
         <v>15154</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="46">
+      <c r="B8" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="45">
         <v>0</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>0</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="46">
+      <c r="I8" s="45">
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="46">
+      <c r="K8" s="45">
         <v>0</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="46">
+      <c r="M8" s="45">
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="46">
+      <c r="O8" s="45">
         <v>0</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="46">
+      <c r="S8" s="45">
         <v>2</v>
       </c>
       <c r="T8" s="5">
@@ -3879,37 +3842,37 @@
     <col min="4" max="11" width="15.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="53" t="s">
+    <row r="1" spans="1:11" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3947,92 +3910,92 @@
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="45">
         <v>600</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <f>C3*1.01</f>
         <v>606</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:I4" si="0">D3*1.01</f>
         <v>612.06000000000006</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <f t="shared" si="0"/>
         <v>618.18060000000003</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <f t="shared" si="0"/>
         <v>624.36240600000008</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <f t="shared" si="0"/>
         <v>630.60603006000008</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="45">
         <f t="shared" si="0"/>
         <v>636.91209036060013</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="46"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="46">
+        <v>91</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="45">
         <v>3600</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <f>C4*1.01</f>
         <v>3636</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>3672.36</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <f t="shared" si="0"/>
         <v>3709.0836000000004</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <f t="shared" si="0"/>
         <v>3746.1744360000002</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <f t="shared" si="0"/>
         <v>3783.6361803600003</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="45">
         <f t="shared" si="0"/>
         <v>3821.4725421636003</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="46"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="46">
+      <c r="K5" s="45">
         <v>4300</v>
       </c>
     </row>
@@ -4048,34 +4011,34 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.28515625" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="6" style="54"/>
+    <col min="1" max="1" width="49.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.28515625" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="6" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="A1" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4107,74 +4070,74 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="54"/>
       <c r="E3" s="13">
         <v>3</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>2026</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>45</v>
+      <c r="D4" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="54">
         <v>2026</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>111</v>
+      <c r="A5" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -4186,12 +4149,12 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A4 A6:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4203,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,28 +4186,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="A1" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4255,233 +4218,201 @@
       <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2026</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="15">
+        <v>2026</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>64</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="19" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>67</v>
+      <c r="A17" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>55</v>
+      <c r="A18" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>57</v>
+      <c r="A19" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4490,14 +4421,9 @@
     <mergeCell ref="D1:H1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B2 A23 A1:A15">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="#">
+  <conditionalFormatting sqref="A1:B2 A19:A1048576 A1:A15">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="#">
-      <formula>NOT(ISERROR(SEARCH("#",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
@@ -4505,7 +4431,7 @@
       <formula>NOT(ISERROR(SEARCH("#",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A20">
+  <conditionalFormatting sqref="A16:A18">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A16)))</formula>
     </cfRule>
@@ -4520,7 +4446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC800E4A-CCFA-497D-B7D5-38FABA684990}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -4538,1491 +4464,1491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="63">
+        <v>400</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63">
+        <v>400</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="63">
+        <v>1121</v>
+      </c>
+      <c r="J2" s="63">
+        <v>0</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="63">
+        <v>400</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63">
+        <v>400</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63">
+        <v>1107</v>
+      </c>
+      <c r="I3" s="63">
+        <v>1121</v>
+      </c>
+      <c r="J3" s="63">
+        <v>0</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="63">
+        <v>630</v>
+      </c>
+      <c r="C4" s="63">
+        <v>630</v>
+      </c>
+      <c r="D4" s="63">
+        <v>100</v>
+      </c>
+      <c r="E4" s="63">
+        <v>756</v>
+      </c>
+      <c r="F4" s="63">
+        <v>690</v>
+      </c>
+      <c r="G4" s="63">
+        <v>101</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="63">
+        <v>68</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="63">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="63">
+        <v>690</v>
+      </c>
+      <c r="D5" s="63">
+        <v>102</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63">
+        <v>690</v>
+      </c>
+      <c r="G5" s="63">
+        <v>102</v>
+      </c>
+      <c r="H5" s="63">
+        <v>3005</v>
+      </c>
+      <c r="I5" s="63">
+        <v>3006</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="63">
+        <v>630</v>
+      </c>
+      <c r="C6" s="63">
+        <v>630</v>
+      </c>
+      <c r="D6" s="63">
+        <v>100</v>
+      </c>
+      <c r="E6" s="63">
+        <v>756</v>
+      </c>
+      <c r="F6" s="63">
+        <v>690</v>
+      </c>
+      <c r="G6" s="63">
+        <v>101</v>
+      </c>
+      <c r="H6" s="63">
+        <v>3005</v>
+      </c>
+      <c r="I6" s="63">
+        <v>3085</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="L6" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="63">
+        <v>630</v>
+      </c>
+      <c r="C7" s="63">
+        <v>630</v>
+      </c>
+      <c r="D7" s="63">
+        <v>103</v>
+      </c>
+      <c r="E7" s="63">
+        <v>756</v>
+      </c>
+      <c r="F7" s="63">
+        <v>710</v>
+      </c>
+      <c r="G7" s="63">
+        <v>104</v>
+      </c>
+      <c r="H7" s="63">
+        <v>3005</v>
+      </c>
+      <c r="I7" s="63">
+        <v>60</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="L7" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="63">
+        <v>630</v>
+      </c>
+      <c r="C8" s="63">
+        <v>630</v>
+      </c>
+      <c r="D8" s="63">
+        <v>100</v>
+      </c>
+      <c r="E8" s="63">
+        <v>756</v>
+      </c>
+      <c r="F8" s="63">
+        <v>690</v>
+      </c>
+      <c r="G8" s="63">
+        <v>101</v>
+      </c>
+      <c r="H8" s="63">
+        <v>1067</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1030</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="L8" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="63">
+        <v>630</v>
+      </c>
+      <c r="C9" s="63">
+        <v>630</v>
+      </c>
+      <c r="D9" s="63">
+        <v>100</v>
+      </c>
+      <c r="E9" s="63">
+        <v>756</v>
+      </c>
+      <c r="F9" s="63">
+        <v>690</v>
+      </c>
+      <c r="G9" s="63">
+        <v>101</v>
+      </c>
+      <c r="H9" s="63">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="63">
+        <v>1072</v>
+      </c>
+      <c r="J9" s="63">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="L9" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="63">
+        <v>630</v>
+      </c>
+      <c r="C10" s="63">
+        <v>630</v>
+      </c>
+      <c r="D10" s="63">
+        <v>100</v>
+      </c>
+      <c r="E10" s="63">
+        <v>756</v>
+      </c>
+      <c r="F10" s="63">
+        <v>690</v>
+      </c>
+      <c r="G10" s="63">
+        <v>101</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1072</v>
+      </c>
+      <c r="I10" s="63">
+        <v>1080</v>
+      </c>
+      <c r="J10" s="63">
+        <v>0</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="63">
+        <v>630</v>
+      </c>
+      <c r="C11" s="63">
+        <v>630</v>
+      </c>
+      <c r="D11" s="63">
+        <v>100</v>
+      </c>
+      <c r="E11" s="63">
+        <v>756</v>
+      </c>
+      <c r="F11" s="63">
+        <v>690</v>
+      </c>
+      <c r="G11" s="63">
+        <v>101</v>
+      </c>
+      <c r="H11" s="63">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="63">
+        <v>2002</v>
+      </c>
+      <c r="J11" s="63">
+        <v>0</v>
+      </c>
+      <c r="K11" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="L11" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="63">
+        <v>630</v>
+      </c>
+      <c r="C12" s="63">
+        <v>630</v>
+      </c>
+      <c r="D12" s="63">
+        <v>100</v>
+      </c>
+      <c r="E12" s="63">
+        <v>756</v>
+      </c>
+      <c r="F12" s="63">
+        <v>690</v>
+      </c>
+      <c r="G12" s="63">
+        <v>101</v>
+      </c>
+      <c r="H12" s="63">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1</v>
+      </c>
+      <c r="J12" s="63">
+        <v>0</v>
+      </c>
+      <c r="K12" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="L12" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="63">
+        <v>630</v>
+      </c>
+      <c r="C13" s="63">
+        <v>630</v>
+      </c>
+      <c r="D13" s="63">
+        <v>100</v>
+      </c>
+      <c r="E13" s="63">
+        <v>756</v>
+      </c>
+      <c r="F13" s="63">
+        <v>690</v>
+      </c>
+      <c r="G13" s="63">
+        <v>101</v>
+      </c>
+      <c r="H13" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="64">
+        <v>1067</v>
+      </c>
+      <c r="J13" s="64">
+        <v>1</v>
+      </c>
+      <c r="K13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="L13" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="63">
+        <v>630</v>
+      </c>
+      <c r="C14" s="63">
+        <v>630</v>
+      </c>
+      <c r="D14" s="63">
+        <v>100</v>
+      </c>
+      <c r="E14" s="63">
+        <v>756</v>
+      </c>
+      <c r="F14" s="63">
+        <v>690</v>
+      </c>
+      <c r="G14" s="63">
+        <v>101</v>
+      </c>
+      <c r="H14" s="64">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="64">
+        <v>1067</v>
+      </c>
+      <c r="J14" s="64">
+        <v>2</v>
+      </c>
+      <c r="K14" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="L14" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="63">
+        <v>320</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63">
+        <v>384</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1029</v>
+      </c>
+      <c r="J15" s="63">
+        <v>0</v>
+      </c>
+      <c r="K15" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="L15" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="63">
+        <v>630</v>
+      </c>
+      <c r="C16" s="63">
+        <v>630</v>
+      </c>
+      <c r="D16" s="63">
+        <v>100</v>
+      </c>
+      <c r="E16" s="63">
+        <v>756</v>
+      </c>
+      <c r="F16" s="63">
+        <v>690</v>
+      </c>
+      <c r="G16" s="63">
+        <v>101</v>
+      </c>
+      <c r="H16" s="63">
+        <v>1067</v>
+      </c>
+      <c r="I16" s="63">
+        <v>1076</v>
+      </c>
+      <c r="J16" s="63">
+        <v>0</v>
+      </c>
+      <c r="K16" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="64">
+      <c r="L16" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="63">
+        <v>630</v>
+      </c>
+      <c r="C17" s="63">
+        <v>630</v>
+      </c>
+      <c r="D17" s="63">
+        <v>100</v>
+      </c>
+      <c r="E17" s="63">
+        <v>756</v>
+      </c>
+      <c r="F17" s="63">
+        <v>690</v>
+      </c>
+      <c r="G17" s="63">
+        <v>101</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1076</v>
+      </c>
+      <c r="I17" s="63">
+        <v>1080</v>
+      </c>
+      <c r="J17" s="63">
+        <v>0</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="63">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="63">
+        <v>871</v>
+      </c>
+      <c r="D18" s="63">
+        <v>105</v>
+      </c>
+      <c r="E18" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="63">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="63">
+        <v>106</v>
+      </c>
+      <c r="H18" s="63">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="63">
+        <v>2003</v>
+      </c>
+      <c r="J18" s="63">
+        <v>0</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="63">
         <v>400</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63">
         <v>400</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64">
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63">
+        <v>1121</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1130</v>
+      </c>
+      <c r="J19" s="63">
+        <v>2</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="63">
+        <v>400</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63">
+        <v>400</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63">
+        <v>1121</v>
+      </c>
+      <c r="I20" s="63">
+        <v>1130</v>
+      </c>
+      <c r="J20" s="63">
+        <v>1</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="63">
+        <v>400</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63">
+        <v>400</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63">
+        <v>1080</v>
+      </c>
+      <c r="I21" s="63">
         <v>1114</v>
       </c>
-      <c r="I2" s="64">
-        <v>1121</v>
-      </c>
-      <c r="J2" s="64">
+      <c r="J21" s="63">
         <v>0</v>
       </c>
-      <c r="K2" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="64">
+      <c r="K21" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="63">
         <v>400</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63">
         <v>400</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64">
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63">
+        <v>1080</v>
+      </c>
+      <c r="I22" s="63">
         <v>1107</v>
       </c>
-      <c r="I3" s="64">
-        <v>1121</v>
-      </c>
-      <c r="J3" s="64">
+      <c r="J22" s="63">
         <v>0</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="K22" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="63">
+        <v>400</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63">
+        <v>400</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63">
+        <v>1080</v>
+      </c>
+      <c r="I23" s="63">
+        <v>1087</v>
+      </c>
+      <c r="J23" s="63">
+        <v>0</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="63">
+        <v>400</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63">
+        <v>400</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63">
+        <v>1080</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1088</v>
+      </c>
+      <c r="J24" s="63">
+        <v>0</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="63">
+        <v>630</v>
+      </c>
+      <c r="C25" s="63">
+        <v>630</v>
+      </c>
+      <c r="D25" s="63">
+        <v>100</v>
+      </c>
+      <c r="E25" s="63">
+        <v>756</v>
+      </c>
+      <c r="F25" s="63">
+        <v>690</v>
+      </c>
+      <c r="G25" s="63">
+        <v>101</v>
+      </c>
+      <c r="H25" s="63">
+        <v>2001</v>
+      </c>
+      <c r="I25" s="63">
+        <v>2003</v>
+      </c>
+      <c r="J25" s="63">
+        <v>0</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="63">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="63">
+        <v>825</v>
+      </c>
+      <c r="D26" s="63">
+        <v>107</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63">
+        <v>825</v>
+      </c>
+      <c r="G26" s="63">
+        <v>107</v>
+      </c>
+      <c r="H26" s="63">
+        <v>2003</v>
+      </c>
+      <c r="I26" s="63">
+        <v>3005</v>
+      </c>
+      <c r="J26" s="63">
+        <v>0</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="63">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="63">
+        <v>690</v>
+      </c>
+      <c r="D27" s="63">
+        <v>102</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63">
+        <v>690</v>
+      </c>
+      <c r="G27" s="63">
+        <v>102</v>
+      </c>
+      <c r="H27" s="63">
+        <v>2003</v>
+      </c>
+      <c r="I27" s="63">
+        <v>3007</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="63">
+        <v>600</v>
+      </c>
+      <c r="C28" s="63">
+        <v>600</v>
+      </c>
+      <c r="D28" s="63">
+        <v>108</v>
+      </c>
+      <c r="E28" s="63">
+        <v>600</v>
+      </c>
+      <c r="F28" s="63">
+        <v>600</v>
+      </c>
+      <c r="G28" s="63">
+        <v>108</v>
+      </c>
+      <c r="H28" s="63">
+        <v>10</v>
+      </c>
+      <c r="I28" s="63">
+        <v>48</v>
+      </c>
+      <c r="J28" s="63">
+        <v>1</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="63">
+        <v>600</v>
+      </c>
+      <c r="C29" s="63">
+        <v>600</v>
+      </c>
+      <c r="D29" s="63">
+        <v>108</v>
+      </c>
+      <c r="E29" s="63">
+        <v>600</v>
+      </c>
+      <c r="F29" s="63">
+        <v>600</v>
+      </c>
+      <c r="G29" s="63">
+        <v>108</v>
+      </c>
+      <c r="H29" s="63">
+        <v>10</v>
+      </c>
+      <c r="I29" s="63">
+        <v>48</v>
+      </c>
+      <c r="J29" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="64">
-        <v>630</v>
-      </c>
-      <c r="C4" s="64">
-        <v>630</v>
-      </c>
-      <c r="D4" s="64">
-        <v>100</v>
-      </c>
-      <c r="E4" s="64">
-        <v>756</v>
-      </c>
-      <c r="F4" s="64">
-        <v>690</v>
-      </c>
-      <c r="G4" s="64">
-        <v>101</v>
-      </c>
-      <c r="H4" s="64">
-        <v>1</v>
-      </c>
-      <c r="I4" s="64">
-        <v>68</v>
-      </c>
-      <c r="J4" s="64">
+      <c r="K29" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="63">
+        <v>320</v>
+      </c>
+      <c r="C30" s="63">
+        <v>320</v>
+      </c>
+      <c r="D30" s="63">
+        <v>109</v>
+      </c>
+      <c r="E30" s="63">
+        <v>320</v>
+      </c>
+      <c r="F30" s="63">
+        <v>320</v>
+      </c>
+      <c r="G30" s="63">
+        <v>109</v>
+      </c>
+      <c r="H30" s="63">
+        <v>1062</v>
+      </c>
+      <c r="I30" s="63">
+        <v>1005</v>
+      </c>
+      <c r="J30" s="63">
         <v>0</v>
       </c>
-      <c r="K4" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="64">
+      <c r="K30" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="63">
+        <v>320</v>
+      </c>
+      <c r="C31" s="63">
+        <v>320</v>
+      </c>
+      <c r="D31" s="63">
+        <v>109</v>
+      </c>
+      <c r="E31" s="63">
+        <v>320</v>
+      </c>
+      <c r="F31" s="63">
+        <v>320</v>
+      </c>
+      <c r="G31" s="63">
+        <v>109</v>
+      </c>
+      <c r="H31" s="63">
+        <v>1005</v>
+      </c>
+      <c r="I31" s="63">
+        <v>1012</v>
+      </c>
+      <c r="J31" s="63">
+        <v>0</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="63">
+        <v>320</v>
+      </c>
+      <c r="C32" s="63">
+        <v>320</v>
+      </c>
+      <c r="D32" s="63">
+        <v>109</v>
+      </c>
+      <c r="E32" s="63">
+        <v>320</v>
+      </c>
+      <c r="F32" s="63">
+        <v>320</v>
+      </c>
+      <c r="G32" s="63">
+        <v>109</v>
+      </c>
+      <c r="H32" s="63">
+        <v>1012</v>
+      </c>
+      <c r="I32" s="63">
+        <v>1010</v>
+      </c>
+      <c r="J32" s="63">
+        <v>0</v>
+      </c>
+      <c r="K32" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="63">
+        <v>400</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63">
+        <v>400</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63">
+        <v>1041</v>
+      </c>
+      <c r="I33" s="63">
+        <v>1064</v>
+      </c>
+      <c r="J33" s="63">
+        <v>0</v>
+      </c>
+      <c r="K33" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="63">
+        <v>400</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63">
+        <v>400</v>
+      </c>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63">
         <v>1000</v>
       </c>
-      <c r="C5" s="64">
-        <v>690</v>
-      </c>
-      <c r="D5" s="64">
-        <v>102</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64">
-        <v>690</v>
-      </c>
-      <c r="G5" s="64">
-        <v>102</v>
-      </c>
-      <c r="H5" s="64">
-        <v>3005</v>
-      </c>
-      <c r="I5" s="64">
-        <v>3006</v>
-      </c>
-      <c r="J5" s="64">
+      <c r="I34" s="63">
+        <v>1041</v>
+      </c>
+      <c r="J34" s="63">
         <v>0</v>
       </c>
-      <c r="K5" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="64">
-        <v>630</v>
-      </c>
-      <c r="C6" s="64">
-        <v>630</v>
-      </c>
-      <c r="D6" s="64">
-        <v>100</v>
-      </c>
-      <c r="E6" s="64">
-        <v>756</v>
-      </c>
-      <c r="F6" s="64">
-        <v>690</v>
-      </c>
-      <c r="G6" s="64">
-        <v>101</v>
-      </c>
-      <c r="H6" s="64">
-        <v>3005</v>
-      </c>
-      <c r="I6" s="64">
-        <v>3085</v>
-      </c>
-      <c r="J6" s="64">
+      <c r="K34" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="63">
+        <v>400</v>
+      </c>
+      <c r="C35" s="63">
+        <v>400</v>
+      </c>
+      <c r="D35" s="63">
+        <v>110</v>
+      </c>
+      <c r="E35" s="63">
+        <v>400</v>
+      </c>
+      <c r="F35" s="63">
+        <v>400</v>
+      </c>
+      <c r="G35" s="63">
+        <v>110</v>
+      </c>
+      <c r="H35" s="63">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="63">
+        <v>1008</v>
+      </c>
+      <c r="J35" s="63">
         <v>0</v>
       </c>
-      <c r="K6" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="64">
-        <v>630</v>
-      </c>
-      <c r="C7" s="64">
-        <v>630</v>
-      </c>
-      <c r="D7" s="64">
-        <v>103</v>
-      </c>
-      <c r="E7" s="64">
-        <v>756</v>
-      </c>
-      <c r="F7" s="64">
-        <v>710</v>
-      </c>
-      <c r="G7" s="64">
-        <v>104</v>
-      </c>
-      <c r="H7" s="64">
-        <v>3005</v>
-      </c>
-      <c r="I7" s="64">
-        <v>60</v>
-      </c>
-      <c r="J7" s="64">
+      <c r="K35" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="63">
+        <v>400</v>
+      </c>
+      <c r="C36" s="63">
+        <v>400</v>
+      </c>
+      <c r="D36" s="63">
+        <v>110</v>
+      </c>
+      <c r="E36" s="63">
+        <v>400</v>
+      </c>
+      <c r="F36" s="63">
+        <v>400</v>
+      </c>
+      <c r="G36" s="63">
+        <v>110</v>
+      </c>
+      <c r="H36" s="63">
+        <v>1008</v>
+      </c>
+      <c r="I36" s="63">
+        <v>1011</v>
+      </c>
+      <c r="J36" s="63">
         <v>0</v>
       </c>
-      <c r="K7" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="64">
-        <v>630</v>
-      </c>
-      <c r="C8" s="64">
-        <v>630</v>
-      </c>
-      <c r="D8" s="64">
-        <v>100</v>
-      </c>
-      <c r="E8" s="64">
-        <v>756</v>
-      </c>
-      <c r="F8" s="64">
-        <v>690</v>
-      </c>
-      <c r="G8" s="64">
-        <v>101</v>
-      </c>
-      <c r="H8" s="64">
-        <v>1067</v>
-      </c>
-      <c r="I8" s="64">
-        <v>1030</v>
-      </c>
-      <c r="J8" s="64">
+      <c r="K36" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="63">
+        <v>320</v>
+      </c>
+      <c r="C37" s="63">
+        <v>320</v>
+      </c>
+      <c r="D37" s="63">
+        <v>109</v>
+      </c>
+      <c r="E37" s="63">
+        <v>320</v>
+      </c>
+      <c r="F37" s="63">
+        <v>320</v>
+      </c>
+      <c r="G37" s="63">
+        <v>109</v>
+      </c>
+      <c r="H37" s="63">
+        <v>1011</v>
+      </c>
+      <c r="I37" s="63">
+        <v>1010</v>
+      </c>
+      <c r="J37" s="63">
         <v>0</v>
       </c>
-      <c r="K8" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="64">
-        <v>630</v>
-      </c>
-      <c r="C9" s="64">
-        <v>630</v>
-      </c>
-      <c r="D9" s="64">
-        <v>100</v>
-      </c>
-      <c r="E9" s="64">
-        <v>756</v>
-      </c>
-      <c r="F9" s="64">
-        <v>690</v>
-      </c>
-      <c r="G9" s="64">
-        <v>101</v>
-      </c>
-      <c r="H9" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="64">
-        <v>1072</v>
-      </c>
-      <c r="J9" s="64">
+      <c r="K37" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="L37" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="63">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="63">
+        <v>960</v>
+      </c>
+      <c r="D38" s="63">
+        <v>111</v>
+      </c>
+      <c r="E38" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="63">
+        <v>960</v>
+      </c>
+      <c r="G38" s="63">
+        <v>111</v>
+      </c>
+      <c r="H38" s="63">
+        <v>2006</v>
+      </c>
+      <c r="I38" s="63">
+        <v>2010</v>
+      </c>
+      <c r="J38" s="63">
+        <v>1</v>
+      </c>
+      <c r="K38" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="63">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="63">
+        <v>960</v>
+      </c>
+      <c r="D39" s="63">
+        <v>111</v>
+      </c>
+      <c r="E39" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="63">
+        <v>960</v>
+      </c>
+      <c r="G39" s="63">
+        <v>111</v>
+      </c>
+      <c r="H39" s="63">
+        <v>2006</v>
+      </c>
+      <c r="I39" s="63">
+        <v>2010</v>
+      </c>
+      <c r="J39" s="63">
+        <v>2</v>
+      </c>
+      <c r="K39" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="63">
+        <v>400</v>
+      </c>
+      <c r="C40" s="63">
+        <v>390</v>
+      </c>
+      <c r="D40" s="63">
+        <v>112</v>
+      </c>
+      <c r="E40" s="63">
+        <v>480</v>
+      </c>
+      <c r="F40" s="63">
+        <v>456</v>
+      </c>
+      <c r="G40" s="63">
+        <v>113</v>
+      </c>
+      <c r="H40" s="65">
+        <v>3015</v>
+      </c>
+      <c r="I40" s="65">
+        <v>3020</v>
+      </c>
+      <c r="J40" s="65">
         <v>0</v>
       </c>
-      <c r="K9" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="64">
-        <v>630</v>
-      </c>
-      <c r="C10" s="64">
-        <v>630</v>
-      </c>
-      <c r="D10" s="64">
-        <v>100</v>
-      </c>
-      <c r="E10" s="64">
-        <v>756</v>
-      </c>
-      <c r="F10" s="64">
-        <v>690</v>
-      </c>
-      <c r="G10" s="64">
-        <v>101</v>
-      </c>
-      <c r="H10" s="64">
-        <v>1072</v>
-      </c>
-      <c r="I10" s="64">
-        <v>1080</v>
-      </c>
-      <c r="J10" s="64">
+      <c r="K40" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="L40" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="63">
+        <v>600</v>
+      </c>
+      <c r="C41" s="63">
+        <v>390</v>
+      </c>
+      <c r="D41" s="63">
+        <v>114</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63">
+        <v>456</v>
+      </c>
+      <c r="G41" s="63">
+        <v>115</v>
+      </c>
+      <c r="H41" s="65">
+        <v>3094</v>
+      </c>
+      <c r="I41" s="65">
+        <v>3114</v>
+      </c>
+      <c r="J41" s="65">
         <v>0</v>
       </c>
-      <c r="K10" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="64">
-        <v>630</v>
-      </c>
-      <c r="C11" s="64">
-        <v>630</v>
-      </c>
-      <c r="D11" s="64">
-        <v>100</v>
-      </c>
-      <c r="E11" s="64">
-        <v>756</v>
-      </c>
-      <c r="F11" s="64">
-        <v>690</v>
-      </c>
-      <c r="G11" s="64">
-        <v>101</v>
-      </c>
-      <c r="H11" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="64">
-        <v>2002</v>
-      </c>
-      <c r="J11" s="64">
+      <c r="K41" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="L41" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="63">
+        <v>400</v>
+      </c>
+      <c r="C42" s="63">
+        <v>390</v>
+      </c>
+      <c r="D42" s="63">
+        <v>112</v>
+      </c>
+      <c r="E42" s="63">
+        <v>480</v>
+      </c>
+      <c r="F42" s="63">
+        <v>456</v>
+      </c>
+      <c r="G42" s="63">
+        <v>113</v>
+      </c>
+      <c r="H42" s="64">
+        <v>3018</v>
+      </c>
+      <c r="I42" s="64">
+        <v>3020</v>
+      </c>
+      <c r="J42" s="64">
         <v>0</v>
       </c>
-      <c r="K11" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="64">
-        <v>630</v>
-      </c>
-      <c r="C12" s="64">
-        <v>630</v>
-      </c>
-      <c r="D12" s="64">
-        <v>100</v>
-      </c>
-      <c r="E12" s="64">
-        <v>756</v>
-      </c>
-      <c r="F12" s="64">
-        <v>690</v>
-      </c>
-      <c r="G12" s="64">
-        <v>101</v>
-      </c>
-      <c r="H12" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="64">
-        <v>1</v>
-      </c>
-      <c r="J12" s="64">
+      <c r="K42" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="63">
+        <v>600</v>
+      </c>
+      <c r="C43" s="63">
+        <v>390</v>
+      </c>
+      <c r="D43" s="63">
+        <v>114</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63">
+        <v>456</v>
+      </c>
+      <c r="G43" s="63">
+        <v>115</v>
+      </c>
+      <c r="H43" s="64">
+        <v>3083</v>
+      </c>
+      <c r="I43" s="64">
+        <v>3114</v>
+      </c>
+      <c r="J43" s="64">
         <v>0</v>
       </c>
-      <c r="K12" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="64">
-        <v>630</v>
-      </c>
-      <c r="C13" s="64">
-        <v>630</v>
-      </c>
-      <c r="D13" s="64">
-        <v>100</v>
-      </c>
-      <c r="E13" s="64">
-        <v>756</v>
-      </c>
-      <c r="F13" s="64">
-        <v>690</v>
-      </c>
-      <c r="G13" s="64">
-        <v>101</v>
-      </c>
-      <c r="H13" s="84">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="84">
-        <v>1067</v>
-      </c>
-      <c r="J13" s="84">
-        <v>1</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="64">
-        <v>630</v>
-      </c>
-      <c r="C14" s="64">
-        <v>630</v>
-      </c>
-      <c r="D14" s="64">
-        <v>100</v>
-      </c>
-      <c r="E14" s="64">
-        <v>756</v>
-      </c>
-      <c r="F14" s="64">
-        <v>690</v>
-      </c>
-      <c r="G14" s="64">
-        <v>101</v>
-      </c>
-      <c r="H14" s="84">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="84">
-        <v>1067</v>
-      </c>
-      <c r="J14" s="84">
+      <c r="K43" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="63">
+        <v>600</v>
+      </c>
+      <c r="C44" s="63">
+        <v>600</v>
+      </c>
+      <c r="D44" s="63">
+        <v>108</v>
+      </c>
+      <c r="E44" s="63">
+        <v>720</v>
+      </c>
+      <c r="F44" s="63">
+        <v>605</v>
+      </c>
+      <c r="G44" s="63">
+        <v>116</v>
+      </c>
+      <c r="H44" s="63">
+        <v>3131</v>
+      </c>
+      <c r="I44" s="63">
+        <v>3020</v>
+      </c>
+      <c r="J44" s="63">
         <v>2</v>
       </c>
-      <c r="K14" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="64">
-        <v>320</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64">
-        <v>384</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="64">
-        <v>1029</v>
-      </c>
-      <c r="J15" s="64">
-        <v>0</v>
-      </c>
-      <c r="K15" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="L15" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="64">
-        <v>630</v>
-      </c>
-      <c r="C16" s="64">
-        <v>630</v>
-      </c>
-      <c r="D16" s="64">
-        <v>100</v>
-      </c>
-      <c r="E16" s="64">
-        <v>756</v>
-      </c>
-      <c r="F16" s="64">
-        <v>690</v>
-      </c>
-      <c r="G16" s="64">
-        <v>101</v>
-      </c>
-      <c r="H16" s="64">
-        <v>1067</v>
-      </c>
-      <c r="I16" s="64">
-        <v>1076</v>
-      </c>
-      <c r="J16" s="64">
-        <v>0</v>
-      </c>
-      <c r="K16" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="64">
-        <v>630</v>
-      </c>
-      <c r="C17" s="64">
-        <v>630</v>
-      </c>
-      <c r="D17" s="64">
-        <v>100</v>
-      </c>
-      <c r="E17" s="64">
-        <v>756</v>
-      </c>
-      <c r="F17" s="64">
-        <v>690</v>
-      </c>
-      <c r="G17" s="64">
-        <v>101</v>
-      </c>
-      <c r="H17" s="64">
-        <v>1076</v>
-      </c>
-      <c r="I17" s="64">
-        <v>1080</v>
-      </c>
-      <c r="J17" s="64">
-        <v>0</v>
-      </c>
-      <c r="K17" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="64">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="64">
-        <v>871</v>
-      </c>
-      <c r="D18" s="64">
-        <v>105</v>
-      </c>
-      <c r="E18" s="64">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="64">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="64">
-        <v>106</v>
-      </c>
-      <c r="H18" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="64">
-        <v>2003</v>
-      </c>
-      <c r="J18" s="64">
-        <v>0</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="L18" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="64">
-        <v>400</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64">
-        <v>400</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64">
-        <v>1121</v>
-      </c>
-      <c r="I19" s="64">
-        <v>1130</v>
-      </c>
-      <c r="J19" s="64">
-        <v>2</v>
-      </c>
-      <c r="K19" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="64">
-        <v>400</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64">
-        <v>400</v>
-      </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64">
-        <v>1121</v>
-      </c>
-      <c r="I20" s="64">
-        <v>1130</v>
-      </c>
-      <c r="J20" s="64">
-        <v>1</v>
-      </c>
-      <c r="K20" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="64">
-        <v>400</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64">
-        <v>400</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64">
-        <v>1080</v>
-      </c>
-      <c r="I21" s="64">
-        <v>1114</v>
-      </c>
-      <c r="J21" s="64">
-        <v>0</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="L21" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="64">
-        <v>400</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64">
-        <v>400</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64">
-        <v>1080</v>
-      </c>
-      <c r="I22" s="64">
-        <v>1107</v>
-      </c>
-      <c r="J22" s="64">
-        <v>0</v>
-      </c>
-      <c r="K22" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="L22" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="64">
-        <v>400</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64">
-        <v>400</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64">
-        <v>1080</v>
-      </c>
-      <c r="I23" s="64">
-        <v>1087</v>
-      </c>
-      <c r="J23" s="64">
-        <v>0</v>
-      </c>
-      <c r="K23" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="64">
-        <v>400</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64">
-        <v>400</v>
-      </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64">
-        <v>1080</v>
-      </c>
-      <c r="I24" s="64">
-        <v>1088</v>
-      </c>
-      <c r="J24" s="64">
-        <v>0</v>
-      </c>
-      <c r="K24" s="64" t="s">
+      <c r="K44" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="L24" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="64">
-        <v>630</v>
-      </c>
-      <c r="C25" s="64">
-        <v>630</v>
-      </c>
-      <c r="D25" s="64">
-        <v>100</v>
-      </c>
-      <c r="E25" s="64">
-        <v>756</v>
-      </c>
-      <c r="F25" s="64">
-        <v>690</v>
-      </c>
-      <c r="G25" s="64">
-        <v>101</v>
-      </c>
-      <c r="H25" s="64">
-        <v>2001</v>
-      </c>
-      <c r="I25" s="64">
-        <v>2003</v>
-      </c>
-      <c r="J25" s="64">
-        <v>0</v>
-      </c>
-      <c r="K25" s="64" t="s">
+      <c r="L44" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="63">
+        <v>600</v>
+      </c>
+      <c r="C45" s="63">
+        <v>600</v>
+      </c>
+      <c r="D45" s="63">
+        <v>108</v>
+      </c>
+      <c r="E45" s="63">
+        <v>720</v>
+      </c>
+      <c r="F45" s="63">
+        <v>605</v>
+      </c>
+      <c r="G45" s="63">
+        <v>116</v>
+      </c>
+      <c r="H45" s="63">
+        <v>3131</v>
+      </c>
+      <c r="I45" s="63">
+        <v>3020</v>
+      </c>
+      <c r="J45" s="63">
+        <v>1</v>
+      </c>
+      <c r="K45" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="L25" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="64">
-        <v>2000</v>
-      </c>
-      <c r="C26" s="64">
-        <v>825</v>
-      </c>
-      <c r="D26" s="64">
-        <v>107</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64">
-        <v>825</v>
-      </c>
-      <c r="G26" s="64">
-        <v>107</v>
-      </c>
-      <c r="H26" s="64">
-        <v>2003</v>
-      </c>
-      <c r="I26" s="64">
-        <v>3005</v>
-      </c>
-      <c r="J26" s="64">
-        <v>0</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="L26" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="64">
-        <v>1000</v>
-      </c>
-      <c r="C27" s="64">
-        <v>690</v>
-      </c>
-      <c r="D27" s="64">
-        <v>102</v>
-      </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64">
-        <v>690</v>
-      </c>
-      <c r="G27" s="64">
-        <v>102</v>
-      </c>
-      <c r="H27" s="64">
-        <v>2003</v>
-      </c>
-      <c r="I27" s="64">
-        <v>3007</v>
-      </c>
-      <c r="J27" s="64">
-        <v>0</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="64">
-        <v>600</v>
-      </c>
-      <c r="C28" s="64">
-        <v>600</v>
-      </c>
-      <c r="D28" s="64">
-        <v>108</v>
-      </c>
-      <c r="E28" s="64">
-        <v>600</v>
-      </c>
-      <c r="F28" s="64">
-        <v>600</v>
-      </c>
-      <c r="G28" s="64">
-        <v>108</v>
-      </c>
-      <c r="H28" s="64">
-        <v>10</v>
-      </c>
-      <c r="I28" s="64">
-        <v>48</v>
-      </c>
-      <c r="J28" s="64">
-        <v>1</v>
-      </c>
-      <c r="K28" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="64">
-        <v>600</v>
-      </c>
-      <c r="C29" s="64">
-        <v>600</v>
-      </c>
-      <c r="D29" s="64">
-        <v>108</v>
-      </c>
-      <c r="E29" s="64">
-        <v>600</v>
-      </c>
-      <c r="F29" s="64">
-        <v>600</v>
-      </c>
-      <c r="G29" s="64">
-        <v>108</v>
-      </c>
-      <c r="H29" s="64">
-        <v>10</v>
-      </c>
-      <c r="I29" s="64">
-        <v>48</v>
-      </c>
-      <c r="J29" s="64">
-        <v>2</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="64">
-        <v>320</v>
-      </c>
-      <c r="C30" s="64">
-        <v>320</v>
-      </c>
-      <c r="D30" s="64">
-        <v>109</v>
-      </c>
-      <c r="E30" s="64">
-        <v>320</v>
-      </c>
-      <c r="F30" s="64">
-        <v>320</v>
-      </c>
-      <c r="G30" s="64">
-        <v>109</v>
-      </c>
-      <c r="H30" s="64">
-        <v>1062</v>
-      </c>
-      <c r="I30" s="64">
-        <v>1005</v>
-      </c>
-      <c r="J30" s="64">
-        <v>0</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="64">
-        <v>320</v>
-      </c>
-      <c r="C31" s="64">
-        <v>320</v>
-      </c>
-      <c r="D31" s="64">
-        <v>109</v>
-      </c>
-      <c r="E31" s="64">
-        <v>320</v>
-      </c>
-      <c r="F31" s="64">
-        <v>320</v>
-      </c>
-      <c r="G31" s="64">
-        <v>109</v>
-      </c>
-      <c r="H31" s="64">
-        <v>1005</v>
-      </c>
-      <c r="I31" s="64">
-        <v>1012</v>
-      </c>
-      <c r="J31" s="64">
-        <v>0</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="L31" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="64">
-        <v>320</v>
-      </c>
-      <c r="C32" s="64">
-        <v>320</v>
-      </c>
-      <c r="D32" s="64">
-        <v>109</v>
-      </c>
-      <c r="E32" s="64">
-        <v>320</v>
-      </c>
-      <c r="F32" s="64">
-        <v>320</v>
-      </c>
-      <c r="G32" s="64">
-        <v>109</v>
-      </c>
-      <c r="H32" s="64">
-        <v>1012</v>
-      </c>
-      <c r="I32" s="64">
-        <v>1010</v>
-      </c>
-      <c r="J32" s="64">
-        <v>0</v>
-      </c>
-      <c r="K32" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="L32" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="64">
-        <v>400</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64">
-        <v>400</v>
-      </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64">
-        <v>1041</v>
-      </c>
-      <c r="I33" s="64">
-        <v>1064</v>
-      </c>
-      <c r="J33" s="64">
-        <v>0</v>
-      </c>
-      <c r="K33" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="L33" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="64">
-        <v>400</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64">
-        <v>400</v>
-      </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="64">
-        <v>1041</v>
-      </c>
-      <c r="J34" s="64">
-        <v>0</v>
-      </c>
-      <c r="K34" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="L34" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="64">
-        <v>400</v>
-      </c>
-      <c r="C35" s="64">
-        <v>400</v>
-      </c>
-      <c r="D35" s="64">
-        <v>110</v>
-      </c>
-      <c r="E35" s="64">
-        <v>400</v>
-      </c>
-      <c r="F35" s="64">
-        <v>400</v>
-      </c>
-      <c r="G35" s="64">
-        <v>110</v>
-      </c>
-      <c r="H35" s="64">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="64">
-        <v>1008</v>
-      </c>
-      <c r="J35" s="64">
-        <v>0</v>
-      </c>
-      <c r="K35" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="64">
-        <v>400</v>
-      </c>
-      <c r="C36" s="64">
-        <v>400</v>
-      </c>
-      <c r="D36" s="64">
-        <v>110</v>
-      </c>
-      <c r="E36" s="64">
-        <v>400</v>
-      </c>
-      <c r="F36" s="64">
-        <v>400</v>
-      </c>
-      <c r="G36" s="64">
-        <v>110</v>
-      </c>
-      <c r="H36" s="64">
-        <v>1008</v>
-      </c>
-      <c r="I36" s="64">
-        <v>1011</v>
-      </c>
-      <c r="J36" s="64">
-        <v>0</v>
-      </c>
-      <c r="K36" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="L36" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="64">
-        <v>320</v>
-      </c>
-      <c r="C37" s="64">
-        <v>320</v>
-      </c>
-      <c r="D37" s="64">
-        <v>109</v>
-      </c>
-      <c r="E37" s="64">
-        <v>320</v>
-      </c>
-      <c r="F37" s="64">
-        <v>320</v>
-      </c>
-      <c r="G37" s="64">
-        <v>109</v>
-      </c>
-      <c r="H37" s="64">
-        <v>1011</v>
-      </c>
-      <c r="I37" s="64">
-        <v>1010</v>
-      </c>
-      <c r="J37" s="64">
-        <v>0</v>
-      </c>
-      <c r="K37" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="64">
-        <v>1000</v>
-      </c>
-      <c r="C38" s="64">
-        <v>960</v>
-      </c>
-      <c r="D38" s="64">
-        <v>111</v>
-      </c>
-      <c r="E38" s="64">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="64">
-        <v>960</v>
-      </c>
-      <c r="G38" s="64">
-        <v>111</v>
-      </c>
-      <c r="H38" s="64">
-        <v>2006</v>
-      </c>
-      <c r="I38" s="64">
-        <v>2010</v>
-      </c>
-      <c r="J38" s="64">
-        <v>1</v>
-      </c>
-      <c r="K38" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="L38" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="64">
-        <v>1000</v>
-      </c>
-      <c r="C39" s="64">
-        <v>960</v>
-      </c>
-      <c r="D39" s="64">
-        <v>111</v>
-      </c>
-      <c r="E39" s="64">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="64">
-        <v>960</v>
-      </c>
-      <c r="G39" s="64">
-        <v>111</v>
-      </c>
-      <c r="H39" s="64">
-        <v>2006</v>
-      </c>
-      <c r="I39" s="64">
-        <v>2010</v>
-      </c>
-      <c r="J39" s="64">
-        <v>2</v>
-      </c>
-      <c r="K39" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="L39" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="64">
-        <v>400</v>
-      </c>
-      <c r="C40" s="64">
-        <v>390</v>
-      </c>
-      <c r="D40" s="64">
-        <v>112</v>
-      </c>
-      <c r="E40" s="64">
-        <v>480</v>
-      </c>
-      <c r="F40" s="64">
-        <v>456</v>
-      </c>
-      <c r="G40" s="64">
-        <v>113</v>
-      </c>
-      <c r="H40" s="85">
-        <v>3015</v>
-      </c>
-      <c r="I40" s="85">
-        <v>3020</v>
-      </c>
-      <c r="J40" s="85">
-        <v>0</v>
-      </c>
-      <c r="K40" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="64">
-        <v>600</v>
-      </c>
-      <c r="C41" s="64">
-        <v>390</v>
-      </c>
-      <c r="D41" s="64">
-        <v>114</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64">
-        <v>456</v>
-      </c>
-      <c r="G41" s="64">
-        <v>115</v>
-      </c>
-      <c r="H41" s="85">
-        <v>3094</v>
-      </c>
-      <c r="I41" s="85">
-        <v>3114</v>
-      </c>
-      <c r="J41" s="85">
-        <v>0</v>
-      </c>
-      <c r="K41" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="L41" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="64">
-        <v>400</v>
-      </c>
-      <c r="C42" s="64">
-        <v>390</v>
-      </c>
-      <c r="D42" s="64">
-        <v>112</v>
-      </c>
-      <c r="E42" s="64">
-        <v>480</v>
-      </c>
-      <c r="F42" s="64">
-        <v>456</v>
-      </c>
-      <c r="G42" s="64">
-        <v>113</v>
-      </c>
-      <c r="H42" s="84">
-        <v>3018</v>
-      </c>
-      <c r="I42" s="84">
-        <v>3020</v>
-      </c>
-      <c r="J42" s="84">
-        <v>0</v>
-      </c>
-      <c r="K42" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="L42" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="64">
-        <v>600</v>
-      </c>
-      <c r="C43" s="64">
-        <v>390</v>
-      </c>
-      <c r="D43" s="64">
-        <v>114</v>
-      </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64">
-        <v>456</v>
-      </c>
-      <c r="G43" s="64">
-        <v>115</v>
-      </c>
-      <c r="H43" s="84">
-        <v>3083</v>
-      </c>
-      <c r="I43" s="84">
-        <v>3114</v>
-      </c>
-      <c r="J43" s="84">
-        <v>0</v>
-      </c>
-      <c r="K43" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="L43" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="64">
-        <v>600</v>
-      </c>
-      <c r="C44" s="64">
-        <v>600</v>
-      </c>
-      <c r="D44" s="64">
-        <v>108</v>
-      </c>
-      <c r="E44" s="64">
-        <v>720</v>
-      </c>
-      <c r="F44" s="64">
-        <v>605</v>
-      </c>
-      <c r="G44" s="64">
-        <v>116</v>
-      </c>
-      <c r="H44" s="64">
-        <v>3131</v>
-      </c>
-      <c r="I44" s="64">
-        <v>3020</v>
-      </c>
-      <c r="J44" s="64">
-        <v>2</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="L44" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="64">
-        <v>600</v>
-      </c>
-      <c r="C45" s="64">
-        <v>600</v>
-      </c>
-      <c r="D45" s="64">
-        <v>108</v>
-      </c>
-      <c r="E45" s="64">
-        <v>720</v>
-      </c>
-      <c r="F45" s="64">
-        <v>605</v>
-      </c>
-      <c r="G45" s="64">
-        <v>116</v>
-      </c>
-      <c r="H45" s="64">
-        <v>3131</v>
-      </c>
-      <c r="I45" s="64">
-        <v>3020</v>
-      </c>
-      <c r="J45" s="64">
-        <v>1</v>
-      </c>
-      <c r="K45" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="L45" s="64">
+      <c r="L45" s="63">
         <v>1</v>
       </c>
     </row>
@@ -6047,22 +5973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>220</v>
+      <c r="A1" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>222</v>
+      <c r="A2" s="62" t="s">
+        <v>208</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -6075,8 +6001,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>221</v>
+      <c r="A3" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -6089,7 +6015,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>0</v>
       </c>
       <c r="B4">
@@ -9024,119 +8950,119 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="82"/>
+      <c r="A1" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="57">
+      <c r="A2" s="84"/>
+      <c r="B2" s="56">
         <v>0.95</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="56">
         <v>0.98</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="56">
         <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>6</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f>$A3*B$2</f>
         <v>5.6999999999999993</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <f>$A3*C$2</f>
         <v>6.84</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="56">
         <v>10</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <f t="shared" ref="B4:B7" si="0">$A4*B$2</f>
         <v>9.5</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="56">
         <f>$A4*C$2</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
+      <c r="A5" s="56">
         <v>35</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f t="shared" si="0"/>
         <v>33.25</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f>$A5*C$2</f>
         <v>39.9</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>110</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <f t="shared" si="0"/>
         <v>104.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="56">
         <f>$A6*C$2</f>
         <v>125.39999999999999</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
+      <c r="A7" s="56">
         <v>220</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <f>$A7*C$2</f>
         <v>250.79999999999998</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+      <c r="A8" s="56">
         <v>500</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56">
         <f>$A8*D$2</f>
         <v>490</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <f t="shared" ref="E8" si="1">$A8*E$2</f>
         <v>525</v>
       </c>
@@ -9156,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,135 +9100,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>171</v>
+      <c r="A1" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D8FBA-C646-4196-BC98-C2179D8B8D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49AEFBF-8AEE-4E92-940D-A715BBF35FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="2" activeTab="8" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -540,7 +540,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">- выборка в таблицах rastr. 
-Если несколько выборок, то  указываются через пробел (н.р. </t>
+Если несколько выборок, то  указываются через ";" (н.р. </t>
         </r>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>na=1|na=2 no=1 npa=1 nga=2 Num=25 g=12</t>
+          <t>na=1|na=2; no=1; npa=1; nga=2; Num=25; g=12</t>
         </r>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">12 21 </t>
+          <t xml:space="preserve">12; 21 </t>
         </r>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> ny=12 ny=21</t>
+          <t xml:space="preserve"> ny=12;ny=21</t>
         </r>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">12,13,0 </t>
+          <t xml:space="preserve">12,13(ноль можно на писать) </t>
         </r>
         <r>
           <rPr>
@@ -779,7 +779,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>- параметры (нр pn=1 qn=1 sel=1 sta=1).</t>
+          <t>- параметры (нр pn=1; qn=1; sel=1; sta=1).</t>
         </r>
       </text>
     </comment>
@@ -873,7 +873,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>- параметры новой строки (нр pn=1 qn=1)</t>
+          <t>- параметры новой строки (нр pn=1; qn=1)</t>
         </r>
         <r>
           <rPr>
@@ -885,7 +885,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+;</t>
         </r>
       </text>
     </comment>
@@ -1053,7 +1053,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
   <si>
     <t>pn</t>
   </si>
@@ -1088,9 +1088,6 @@
     <t>Num=909</t>
   </si>
   <si>
-    <t>ny=15503</t>
-  </si>
-  <si>
     <t>na=1</t>
   </si>
   <si>
@@ -1151,9 +1148,6 @@
     <t>для всех строк в таблице ветви</t>
   </si>
   <si>
-    <t>15038,15041,0</t>
-  </si>
-  <si>
     <t>ip,iq,np ветви</t>
   </si>
   <si>
@@ -1268,9 +1262,6 @@
     <t>Задание на изменение значений (в том числе потребления) в таблицах RastrWin в табличном виде</t>
   </si>
   <si>
-    <t xml:space="preserve">В первом столбце задается в какой таблице RastrWin и по какому ключу искать значение, нр: узел (12 или ny=12), ветвь (12,13,0), район (na=1) - аналогично выборке в строковой форме. </t>
-  </si>
-  <si>
     <t>В первой строке имена файлов без расширения. Если несколько моделей, то имена через знак "|",  * - во всех режимах, *[2026][зим][мин][0°C] - режимы в соответствии с выборкой [].</t>
   </si>
   <si>
@@ -1394,9 +1385,6 @@
     <t>U&gt;300</t>
   </si>
   <si>
-    <t>15561,15129,0; 15562,15130,0; Num=912; g=913</t>
-  </si>
-  <si>
     <t>15195; 15196</t>
   </si>
   <si>
@@ -1704,6 +1692,21 @@
   </si>
   <si>
     <t>(15301: vras&lt;525.5)&amp;(15301: vras&gt;100)</t>
+  </si>
+  <si>
+    <t>номера узлов</t>
+  </si>
+  <si>
+    <t>15503;15505</t>
+  </si>
+  <si>
+    <t>В первом столбце задается в какой таблице RastrWin и по какому ключу искать значение, нр: узел (12), ветвь (12,13,0), район (na=1) - аналогично выборке в строковой форме. Можно указать несколько значений через ";"</t>
+  </si>
+  <si>
+    <t>15038,15041</t>
+  </si>
+  <si>
+    <t>15561,15129; 15562,15130,0; Num=912; g=913</t>
   </si>
 </sst>
 </file>
@@ -2246,12 +2249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2260,6 +2257,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2671,13 +2674,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2108A675-D9C4-4B1E-96B8-5AA055D2716A}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
@@ -2688,7 +2691,7 @@
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
     <col min="13" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="35.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="41" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,43 +2699,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="69"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="67"/>
       <c r="P1" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>0</v>
@@ -2756,10 +2759,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>6</v>
@@ -2768,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
         <v>15504</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
@@ -2791,7 +2794,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2811,10 +2814,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -2828,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2851,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -2874,7 +2877,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2917,10 +2920,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2963,10 +2966,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2989,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
         <v>800</v>
@@ -3009,10 +3012,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <v>4000</v>
@@ -3032,10 +3035,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -3055,10 +3058,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
@@ -3078,10 +3081,10 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
@@ -3100,172 +3103,167 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
+      <c r="A23" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A16:P16"/>
@@ -3274,6 +3272,11 @@
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:P21"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3306,31 +3309,31 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="72" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" s="72"/>
       <c r="G1" s="72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="75"/>
       <c r="K1" s="74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L1" s="75"/>
       <c r="M1" s="74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N1" s="75"/>
       <c r="O1" s="74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P1" s="75"/>
       <c r="Q1" s="72" t="s">
@@ -3338,7 +3341,7 @@
       </c>
       <c r="R1" s="72"/>
       <c r="S1" s="73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T1" s="73"/>
     </row>
@@ -3405,7 +3408,7 @@
         <v>15149</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="45">
         <v>1</v>
@@ -3466,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S3" s="45">
         <v>2</v>
@@ -3480,7 +3483,7 @@
         <v>15150</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="45">
         <v>2</v>
@@ -3541,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S4" s="45">
         <v>2</v>
@@ -3555,7 +3558,7 @@
         <v>15151</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="45">
         <v>3</v>
@@ -3626,7 +3629,7 @@
         <v>15152</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="45">
         <v>4</v>
@@ -3697,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="45">
         <v>5</v>
@@ -3768,7 +3771,7 @@
         <v>15154</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="45">
         <v>0</v>
@@ -3848,62 +3851,62 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="H1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>85</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3911,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="45">
         <v>600</v>
@@ -3945,10 +3948,10 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>94</v>
       </c>
       <c r="C4" s="45">
         <v>3600</v>
@@ -3982,10 +3985,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -4027,14 +4030,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
       <c r="E1" s="79"/>
       <c r="F1" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
@@ -4042,42 +4045,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="13">
@@ -4087,25 +4090,25 @@
         <v>2026</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="13">
         <v>2</v>
@@ -4114,25 +4117,25 @@
         <v>2026</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
@@ -4168,8 +4171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4187,12 +4190,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
       <c r="D1" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -4201,179 +4204,179 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="15">
         <v>2026</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>2</v>
@@ -4381,7 +4384,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -4389,30 +4392,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="15">
         <v>2026</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4465,45 +4468,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="J1" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="K1" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>167</v>
-      </c>
       <c r="L1" s="60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="63">
         <v>400</v>
@@ -4525,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L2" s="63">
         <v>1</v>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="63">
         <v>400</v>
@@ -4555,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L3" s="63">
         <v>1</v>
@@ -4593,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="63" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L4" s="63">
         <v>1</v>
@@ -4626,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="63">
         <v>1</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L6" s="63">
         <v>1</v>
@@ -4696,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L7" s="63">
         <v>1</v>
@@ -4731,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L8" s="63">
         <v>1</v>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L9" s="63">
         <v>1</v>
@@ -4801,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L10" s="63">
         <v>1</v>
@@ -4836,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="63" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="63">
         <v>1</v>
@@ -4871,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L12" s="63">
         <v>1</v>
@@ -4906,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L13" s="63">
         <v>1</v>
@@ -4941,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L14" s="63">
         <v>1</v>
@@ -4968,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L15" s="63">
         <v>1</v>
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L16" s="63">
         <v>1</v>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L17" s="63">
         <v>1</v>
@@ -5073,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L18" s="63">
         <v>1</v>
@@ -5100,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L19" s="63">
         <v>1</v>
@@ -5127,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L20" s="63">
         <v>1</v>
@@ -5154,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L21" s="63">
         <v>1</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L22" s="63">
         <v>1</v>
@@ -5208,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="63" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L23" s="63">
         <v>1</v>
@@ -5235,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L24" s="63">
         <v>1</v>
@@ -5270,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L25" s="63">
         <v>1</v>
@@ -5303,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="63">
         <v>1</v>
@@ -5336,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L27" s="63">
         <v>1</v>
@@ -5371,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L28" s="63">
         <v>1</v>
@@ -5406,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L29" s="63">
         <v>1</v>
@@ -5441,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L30" s="63">
         <v>1</v>
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L31" s="63">
         <v>1</v>
@@ -5511,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L32" s="63">
         <v>1</v>
@@ -5538,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L33" s="63">
         <v>1</v>
@@ -5565,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L34" s="63">
         <v>1</v>
@@ -5600,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L35" s="63">
         <v>1</v>
@@ -5635,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L36" s="63">
         <v>1</v>
@@ -5670,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L37" s="63">
         <v>1</v>
@@ -5705,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L38" s="63">
         <v>1</v>
@@ -5740,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L39" s="63">
         <v>1</v>
@@ -5775,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L40" s="63">
         <v>1</v>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="63" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L41" s="63">
         <v>1</v>
@@ -5843,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="63" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L42" s="63">
         <v>1</v>
@@ -5876,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="63" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L43" s="63">
         <v>1</v>
@@ -5911,7 +5914,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L44" s="63">
         <v>1</v>
@@ -5946,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L45" s="63">
         <v>1</v>
@@ -5974,21 +5977,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
         <v>206</v>
       </c>
-      <c r="B1" t="s">
-        <v>210</v>
-      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -6002,7 +6005,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -8951,14 +8954,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="83"/>
     </row>
@@ -9082,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="D11:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9101,134 +9104,134 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="E1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="G1" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>133</v>
-      </c>
       <c r="J1" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
         <v>151</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/test/пример задания.xlsx
+++ b/test/пример задания.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\rastr_add\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49AEFBF-8AEE-4E92-940D-A715BBF35FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCCE507-D251-4405-8273-7BB0E8252DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="4" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" firstSheet="2" activeTab="8" xr2:uid="{325A3FEB-A45A-49F3-BFC0-153C694C9546}"/>
   </bookViews>
   <sheets>
     <sheet name="#табличная форма(ТФ)" sheetId="4" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="217">
   <si>
     <t>pn</t>
   </si>
@@ -1439,75 +1439,36 @@
     <t>Ключ рем.2</t>
   </si>
   <si>
-    <t>Ремонтная схема</t>
-  </si>
-  <si>
     <t>Схема при отключении</t>
   </si>
   <si>
     <t>- в статусе: режим исключается</t>
   </si>
   <si>
-    <t>ВЛ 220 кВ Муравленковская - Надым</t>
-  </si>
-  <si>
-    <t>ip=16102&amp;iq=15132&amp;np=0</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Уренгойская ГРЭС - Тарко-Сале</t>
   </si>
   <si>
-    <t>ip=15177&amp;iq=16095&amp;np=0</t>
-  </si>
-  <si>
-    <t>ВЛ 110 кВ Уренгой – УГП-5В</t>
-  </si>
-  <si>
-    <t>ip=15055&amp;iq=15057&amp;np=0</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Уренгой - Пангоды</t>
   </si>
   <si>
-    <t>ip=15105&amp;iq=15131&amp;np=0</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Надым - Уренгой</t>
   </si>
   <si>
-    <t>ip=15038&amp;iq=15133&amp;np=0</t>
-  </si>
-  <si>
     <t>Уренгойская ГРЭС: 2СШ 220 кВ</t>
   </si>
   <si>
-    <t>ny=15177</t>
-  </si>
-  <si>
     <t>Уренгойская ГРЭС 1Г-ПТ</t>
   </si>
   <si>
-    <t>Num=907</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Уренгойская ГРЭС – Уренгой III цепь</t>
   </si>
   <si>
-    <t>ip=15203&amp;iq=15105&amp;np=0</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Уренгойская ГРЭС - Уренгой №1</t>
   </si>
   <si>
-    <t>ip=15203&amp;iq=15105&amp;np=1</t>
-  </si>
-  <si>
     <t>ВЛ 220 кВ Исконная - Уренгой</t>
   </si>
   <si>
-    <t>ip=15038&amp;iq=15505&amp;np=0</t>
-  </si>
-  <si>
     <t>#20,21</t>
   </si>
   <si>
@@ -1707,6 +1668,42 @@
   </si>
   <si>
     <t>15561,15129; 15562,15130,0; Num=912; g=913</t>
+  </si>
+  <si>
+    <t>Ремонтная схема1</t>
+  </si>
+  <si>
+    <t>Ремонтная схема2</t>
+  </si>
+  <si>
+    <t>15038,15505</t>
+  </si>
+  <si>
+    <t>15177,16095</t>
+  </si>
+  <si>
+    <t>15105,15131</t>
+  </si>
+  <si>
+    <t>15038,15133</t>
+  </si>
+  <si>
+    <t>15203,15105</t>
+  </si>
+  <si>
+    <t>15203,15105,1</t>
+  </si>
+  <si>
+    <t>1 АТ 220/110 кВ ПС 220 кВ Пангоды</t>
+  </si>
+  <si>
+    <t>15131,15114,1</t>
+  </si>
+  <si>
+    <t>2 АТ 220/110 кВ ПС 220 кВ Надым</t>
+  </si>
+  <si>
+    <t>15175,15156,2</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1863,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,8 +1918,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2090,12 +2093,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2235,12 +2316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2249,6 +2324,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2306,6 +2405,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2699,29 +2803,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="67"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="44" t="s">
         <v>28</v>
       </c>
@@ -2814,10 +2918,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -3058,7 +3162,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>31</v>
@@ -3103,164 +3207,164 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
+      <c r="A17" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3308,42 +3412,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="74" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="74" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="74" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="72" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73" t="s">
+      <c r="R1" s="80"/>
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="73"/>
+      <c r="T1" s="81"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -4029,19 +4133,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4077,7 +4181,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>42</v>
@@ -4102,7 +4206,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>42</v>
@@ -4171,7 +4275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0F734-07F8-4CF8-BD61-94C88D3CC74F}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4189,18 +4293,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -4225,7 +4329,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4236,7 +4340,7 @@
         <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4244,7 +4348,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4258,7 +4362,7 @@
         <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,7 +4488,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>2</v>
@@ -4467,1491 +4571,1491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="61">
+        <v>400</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61">
+        <v>400</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="61">
+        <v>1121</v>
+      </c>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="61">
+        <v>400</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61">
+        <v>400</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61">
+        <v>1107</v>
+      </c>
+      <c r="I3" s="61">
+        <v>1121</v>
+      </c>
+      <c r="J3" s="61">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61">
+        <v>630</v>
+      </c>
+      <c r="C4" s="61">
+        <v>630</v>
+      </c>
+      <c r="D4" s="61">
+        <v>100</v>
+      </c>
+      <c r="E4" s="61">
+        <v>756</v>
+      </c>
+      <c r="F4" s="61">
+        <v>690</v>
+      </c>
+      <c r="G4" s="61">
+        <v>101</v>
+      </c>
+      <c r="H4" s="61">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61">
+        <v>68</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="61">
+        <v>690</v>
+      </c>
+      <c r="D5" s="61">
+        <v>102</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
+        <v>690</v>
+      </c>
+      <c r="G5" s="61">
+        <v>102</v>
+      </c>
+      <c r="H5" s="61">
+        <v>3005</v>
+      </c>
+      <c r="I5" s="61">
+        <v>3006</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="L5" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="61">
+        <v>630</v>
+      </c>
+      <c r="C6" s="61">
+        <v>630</v>
+      </c>
+      <c r="D6" s="61">
+        <v>100</v>
+      </c>
+      <c r="E6" s="61">
+        <v>756</v>
+      </c>
+      <c r="F6" s="61">
+        <v>690</v>
+      </c>
+      <c r="G6" s="61">
+        <v>101</v>
+      </c>
+      <c r="H6" s="61">
+        <v>3005</v>
+      </c>
+      <c r="I6" s="61">
+        <v>3085</v>
+      </c>
+      <c r="J6" s="61">
+        <v>0</v>
+      </c>
+      <c r="K6" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="L6" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="61">
+        <v>630</v>
+      </c>
+      <c r="C7" s="61">
+        <v>630</v>
+      </c>
+      <c r="D7" s="61">
+        <v>103</v>
+      </c>
+      <c r="E7" s="61">
+        <v>756</v>
+      </c>
+      <c r="F7" s="61">
+        <v>710</v>
+      </c>
+      <c r="G7" s="61">
+        <v>104</v>
+      </c>
+      <c r="H7" s="61">
+        <v>3005</v>
+      </c>
+      <c r="I7" s="61">
+        <v>60</v>
+      </c>
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="L7" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="61">
+        <v>630</v>
+      </c>
+      <c r="C8" s="61">
+        <v>630</v>
+      </c>
+      <c r="D8" s="61">
+        <v>100</v>
+      </c>
+      <c r="E8" s="61">
+        <v>756</v>
+      </c>
+      <c r="F8" s="61">
+        <v>690</v>
+      </c>
+      <c r="G8" s="61">
+        <v>101</v>
+      </c>
+      <c r="H8" s="61">
+        <v>1067</v>
+      </c>
+      <c r="I8" s="61">
+        <v>1030</v>
+      </c>
+      <c r="J8" s="61">
+        <v>0</v>
+      </c>
+      <c r="K8" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="L8" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="61">
+        <v>630</v>
+      </c>
+      <c r="C9" s="61">
+        <v>630</v>
+      </c>
+      <c r="D9" s="61">
+        <v>100</v>
+      </c>
+      <c r="E9" s="61">
+        <v>756</v>
+      </c>
+      <c r="F9" s="61">
+        <v>690</v>
+      </c>
+      <c r="G9" s="61">
+        <v>101</v>
+      </c>
+      <c r="H9" s="61">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="61">
+        <v>1072</v>
+      </c>
+      <c r="J9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="L9" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="61">
+        <v>630</v>
+      </c>
+      <c r="C10" s="61">
+        <v>630</v>
+      </c>
+      <c r="D10" s="61">
+        <v>100</v>
+      </c>
+      <c r="E10" s="61">
+        <v>756</v>
+      </c>
+      <c r="F10" s="61">
+        <v>690</v>
+      </c>
+      <c r="G10" s="61">
+        <v>101</v>
+      </c>
+      <c r="H10" s="61">
+        <v>1072</v>
+      </c>
+      <c r="I10" s="61">
+        <v>1080</v>
+      </c>
+      <c r="J10" s="61">
+        <v>0</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="61">
+        <v>630</v>
+      </c>
+      <c r="C11" s="61">
+        <v>630</v>
+      </c>
+      <c r="D11" s="61">
+        <v>100</v>
+      </c>
+      <c r="E11" s="61">
+        <v>756</v>
+      </c>
+      <c r="F11" s="61">
+        <v>690</v>
+      </c>
+      <c r="G11" s="61">
+        <v>101</v>
+      </c>
+      <c r="H11" s="61">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="61">
+        <v>2002</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="L11" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="61">
+        <v>630</v>
+      </c>
+      <c r="C12" s="61">
+        <v>630</v>
+      </c>
+      <c r="D12" s="61">
+        <v>100</v>
+      </c>
+      <c r="E12" s="61">
+        <v>756</v>
+      </c>
+      <c r="F12" s="61">
+        <v>690</v>
+      </c>
+      <c r="G12" s="61">
+        <v>101</v>
+      </c>
+      <c r="H12" s="61">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="61">
+        <v>1</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="L12" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="61">
+        <v>630</v>
+      </c>
+      <c r="C13" s="61">
+        <v>630</v>
+      </c>
+      <c r="D13" s="61">
+        <v>100</v>
+      </c>
+      <c r="E13" s="61">
+        <v>756</v>
+      </c>
+      <c r="F13" s="61">
+        <v>690</v>
+      </c>
+      <c r="G13" s="61">
+        <v>101</v>
+      </c>
+      <c r="H13" s="62">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="62">
+        <v>1067</v>
+      </c>
+      <c r="J13" s="62">
+        <v>1</v>
+      </c>
+      <c r="K13" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="L13" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="61">
+        <v>630</v>
+      </c>
+      <c r="C14" s="61">
+        <v>630</v>
+      </c>
+      <c r="D14" s="61">
+        <v>100</v>
+      </c>
+      <c r="E14" s="61">
+        <v>756</v>
+      </c>
+      <c r="F14" s="61">
+        <v>690</v>
+      </c>
+      <c r="G14" s="61">
+        <v>101</v>
+      </c>
+      <c r="H14" s="62">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="62">
+        <v>1067</v>
+      </c>
+      <c r="J14" s="62">
+        <v>2</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L14" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="61">
+        <v>320</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61">
+        <v>384</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="61">
+        <v>1029</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="L15" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="61">
+        <v>630</v>
+      </c>
+      <c r="C16" s="61">
+        <v>630</v>
+      </c>
+      <c r="D16" s="61">
+        <v>100</v>
+      </c>
+      <c r="E16" s="61">
+        <v>756</v>
+      </c>
+      <c r="F16" s="61">
+        <v>690</v>
+      </c>
+      <c r="G16" s="61">
+        <v>101</v>
+      </c>
+      <c r="H16" s="61">
+        <v>1067</v>
+      </c>
+      <c r="I16" s="61">
+        <v>1076</v>
+      </c>
+      <c r="J16" s="61">
+        <v>0</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="61">
+        <v>630</v>
+      </c>
+      <c r="C17" s="61">
+        <v>630</v>
+      </c>
+      <c r="D17" s="61">
+        <v>100</v>
+      </c>
+      <c r="E17" s="61">
+        <v>756</v>
+      </c>
+      <c r="F17" s="61">
+        <v>690</v>
+      </c>
+      <c r="G17" s="61">
+        <v>101</v>
+      </c>
+      <c r="H17" s="61">
+        <v>1076</v>
+      </c>
+      <c r="I17" s="61">
+        <v>1080</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="61">
+        <v>871</v>
+      </c>
+      <c r="D18" s="61">
+        <v>105</v>
+      </c>
+      <c r="E18" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="61">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="61">
+        <v>106</v>
+      </c>
+      <c r="H18" s="61">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="61">
+        <v>2003</v>
+      </c>
+      <c r="J18" s="61">
+        <v>0</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="61">
+        <v>400</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61">
+        <v>400</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61">
+        <v>1121</v>
+      </c>
+      <c r="I19" s="61">
+        <v>1130</v>
+      </c>
+      <c r="J19" s="61">
+        <v>2</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="61">
+        <v>400</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61">
+        <v>400</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61">
+        <v>1121</v>
+      </c>
+      <c r="I20" s="61">
+        <v>1130</v>
+      </c>
+      <c r="J20" s="61">
+        <v>1</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="61">
+        <v>400</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61">
+        <v>400</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61">
+        <v>1080</v>
+      </c>
+      <c r="I21" s="61">
+        <v>1114</v>
+      </c>
+      <c r="J21" s="61">
+        <v>0</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="61">
+        <v>400</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61">
+        <v>400</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61">
+        <v>1080</v>
+      </c>
+      <c r="I22" s="61">
+        <v>1107</v>
+      </c>
+      <c r="J22" s="61">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="61">
+        <v>400</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61">
+        <v>400</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61">
+        <v>1080</v>
+      </c>
+      <c r="I23" s="61">
+        <v>1087</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="61">
+        <v>400</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61">
+        <v>400</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61">
+        <v>1080</v>
+      </c>
+      <c r="I24" s="61">
+        <v>1088</v>
+      </c>
+      <c r="J24" s="61">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="61">
+        <v>630</v>
+      </c>
+      <c r="C25" s="61">
+        <v>630</v>
+      </c>
+      <c r="D25" s="61">
+        <v>100</v>
+      </c>
+      <c r="E25" s="61">
+        <v>756</v>
+      </c>
+      <c r="F25" s="61">
+        <v>690</v>
+      </c>
+      <c r="G25" s="61">
+        <v>101</v>
+      </c>
+      <c r="H25" s="61">
+        <v>2001</v>
+      </c>
+      <c r="I25" s="61">
+        <v>2003</v>
+      </c>
+      <c r="J25" s="61">
+        <v>0</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="61">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="61">
+        <v>825</v>
+      </c>
+      <c r="D26" s="61">
+        <v>107</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61">
+        <v>825</v>
+      </c>
+      <c r="G26" s="61">
+        <v>107</v>
+      </c>
+      <c r="H26" s="61">
+        <v>2003</v>
+      </c>
+      <c r="I26" s="61">
+        <v>3005</v>
+      </c>
+      <c r="J26" s="61">
+        <v>0</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="61">
+        <v>690</v>
+      </c>
+      <c r="D27" s="61">
+        <v>102</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61">
+        <v>690</v>
+      </c>
+      <c r="G27" s="61">
+        <v>102</v>
+      </c>
+      <c r="H27" s="61">
+        <v>2003</v>
+      </c>
+      <c r="I27" s="61">
+        <v>3007</v>
+      </c>
+      <c r="J27" s="61">
+        <v>0</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="61">
+        <v>600</v>
+      </c>
+      <c r="C28" s="61">
+        <v>600</v>
+      </c>
+      <c r="D28" s="61">
+        <v>108</v>
+      </c>
+      <c r="E28" s="61">
+        <v>600</v>
+      </c>
+      <c r="F28" s="61">
+        <v>600</v>
+      </c>
+      <c r="G28" s="61">
+        <v>108</v>
+      </c>
+      <c r="H28" s="61">
+        <v>10</v>
+      </c>
+      <c r="I28" s="61">
         <v>48</v>
       </c>
-      <c r="B2" s="63">
+      <c r="J28" s="61">
+        <v>1</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="61">
+        <v>600</v>
+      </c>
+      <c r="C29" s="61">
+        <v>600</v>
+      </c>
+      <c r="D29" s="61">
+        <v>108</v>
+      </c>
+      <c r="E29" s="61">
+        <v>600</v>
+      </c>
+      <c r="F29" s="61">
+        <v>600</v>
+      </c>
+      <c r="G29" s="61">
+        <v>108</v>
+      </c>
+      <c r="H29" s="61">
+        <v>10</v>
+      </c>
+      <c r="I29" s="61">
+        <v>48</v>
+      </c>
+      <c r="J29" s="61">
+        <v>2</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="61">
+        <v>320</v>
+      </c>
+      <c r="C30" s="61">
+        <v>320</v>
+      </c>
+      <c r="D30" s="61">
+        <v>109</v>
+      </c>
+      <c r="E30" s="61">
+        <v>320</v>
+      </c>
+      <c r="F30" s="61">
+        <v>320</v>
+      </c>
+      <c r="G30" s="61">
+        <v>109</v>
+      </c>
+      <c r="H30" s="61">
+        <v>1062</v>
+      </c>
+      <c r="I30" s="61">
+        <v>1005</v>
+      </c>
+      <c r="J30" s="61">
+        <v>0</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="61">
+        <v>320</v>
+      </c>
+      <c r="C31" s="61">
+        <v>320</v>
+      </c>
+      <c r="D31" s="61">
+        <v>109</v>
+      </c>
+      <c r="E31" s="61">
+        <v>320</v>
+      </c>
+      <c r="F31" s="61">
+        <v>320</v>
+      </c>
+      <c r="G31" s="61">
+        <v>109</v>
+      </c>
+      <c r="H31" s="61">
+        <v>1005</v>
+      </c>
+      <c r="I31" s="61">
+        <v>1012</v>
+      </c>
+      <c r="J31" s="61">
+        <v>0</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="61">
+        <v>320</v>
+      </c>
+      <c r="C32" s="61">
+        <v>320</v>
+      </c>
+      <c r="D32" s="61">
+        <v>109</v>
+      </c>
+      <c r="E32" s="61">
+        <v>320</v>
+      </c>
+      <c r="F32" s="61">
+        <v>320</v>
+      </c>
+      <c r="G32" s="61">
+        <v>109</v>
+      </c>
+      <c r="H32" s="61">
+        <v>1012</v>
+      </c>
+      <c r="I32" s="61">
+        <v>1010</v>
+      </c>
+      <c r="J32" s="61">
+        <v>0</v>
+      </c>
+      <c r="K32" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="61">
         <v>400</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61">
         <v>400</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63">
-        <v>1114</v>
-      </c>
-      <c r="I2" s="63">
-        <v>1121</v>
-      </c>
-      <c r="J2" s="63">
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61">
+        <v>1041</v>
+      </c>
+      <c r="I33" s="61">
+        <v>1064</v>
+      </c>
+      <c r="J33" s="61">
         <v>0</v>
       </c>
-      <c r="K2" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="63">
+      <c r="K33" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="61">
         <v>400</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61">
         <v>400</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63">
-        <v>1107</v>
-      </c>
-      <c r="I3" s="63">
-        <v>1121</v>
-      </c>
-      <c r="J3" s="63">
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="61">
+        <v>1041</v>
+      </c>
+      <c r="J34" s="61">
         <v>0</v>
       </c>
-      <c r="K3" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="K34" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="61">
+        <v>400</v>
+      </c>
+      <c r="C35" s="61">
+        <v>400</v>
+      </c>
+      <c r="D35" s="61">
+        <v>110</v>
+      </c>
+      <c r="E35" s="61">
+        <v>400</v>
+      </c>
+      <c r="F35" s="61">
+        <v>400</v>
+      </c>
+      <c r="G35" s="61">
+        <v>110</v>
+      </c>
+      <c r="H35" s="61">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="61">
+        <v>1008</v>
+      </c>
+      <c r="J35" s="61">
+        <v>0</v>
+      </c>
+      <c r="K35" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="61">
+        <v>400</v>
+      </c>
+      <c r="C36" s="61">
+        <v>400</v>
+      </c>
+      <c r="D36" s="61">
+        <v>110</v>
+      </c>
+      <c r="E36" s="61">
+        <v>400</v>
+      </c>
+      <c r="F36" s="61">
+        <v>400</v>
+      </c>
+      <c r="G36" s="61">
+        <v>110</v>
+      </c>
+      <c r="H36" s="61">
+        <v>1008</v>
+      </c>
+      <c r="I36" s="61">
+        <v>1011</v>
+      </c>
+      <c r="J36" s="61">
+        <v>0</v>
+      </c>
+      <c r="K36" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="61">
+        <v>320</v>
+      </c>
+      <c r="C37" s="61">
+        <v>320</v>
+      </c>
+      <c r="D37" s="61">
+        <v>109</v>
+      </c>
+      <c r="E37" s="61">
+        <v>320</v>
+      </c>
+      <c r="F37" s="61">
+        <v>320</v>
+      </c>
+      <c r="G37" s="61">
+        <v>109</v>
+      </c>
+      <c r="H37" s="61">
+        <v>1011</v>
+      </c>
+      <c r="I37" s="61">
+        <v>1010</v>
+      </c>
+      <c r="J37" s="61">
+        <v>0</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="L37" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="61">
+        <v>960</v>
+      </c>
+      <c r="D38" s="61">
+        <v>111</v>
+      </c>
+      <c r="E38" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="61">
+        <v>960</v>
+      </c>
+      <c r="G38" s="61">
+        <v>111</v>
+      </c>
+      <c r="H38" s="61">
+        <v>2006</v>
+      </c>
+      <c r="I38" s="61">
+        <v>2010</v>
+      </c>
+      <c r="J38" s="61">
+        <v>1</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="L38" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="61">
+        <v>960</v>
+      </c>
+      <c r="D39" s="61">
+        <v>111</v>
+      </c>
+      <c r="E39" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="61">
+        <v>960</v>
+      </c>
+      <c r="G39" s="61">
+        <v>111</v>
+      </c>
+      <c r="H39" s="61">
+        <v>2006</v>
+      </c>
+      <c r="I39" s="61">
+        <v>2010</v>
+      </c>
+      <c r="J39" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="63">
-        <v>630</v>
-      </c>
-      <c r="C4" s="63">
-        <v>630</v>
-      </c>
-      <c r="D4" s="63">
-        <v>100</v>
-      </c>
-      <c r="E4" s="63">
-        <v>756</v>
-      </c>
-      <c r="F4" s="63">
-        <v>690</v>
-      </c>
-      <c r="G4" s="63">
-        <v>101</v>
-      </c>
-      <c r="H4" s="63">
-        <v>1</v>
-      </c>
-      <c r="I4" s="63">
-        <v>68</v>
-      </c>
-      <c r="J4" s="63">
+      <c r="K39" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="61">
+        <v>400</v>
+      </c>
+      <c r="C40" s="61">
+        <v>390</v>
+      </c>
+      <c r="D40" s="61">
+        <v>112</v>
+      </c>
+      <c r="E40" s="61">
+        <v>480</v>
+      </c>
+      <c r="F40" s="61">
+        <v>456</v>
+      </c>
+      <c r="G40" s="61">
+        <v>113</v>
+      </c>
+      <c r="H40" s="63">
+        <v>3015</v>
+      </c>
+      <c r="I40" s="63">
+        <v>3020</v>
+      </c>
+      <c r="J40" s="63">
         <v>0</v>
       </c>
-      <c r="K4" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="63">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="63">
-        <v>690</v>
-      </c>
-      <c r="D5" s="63">
-        <v>102</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63">
-        <v>690</v>
-      </c>
-      <c r="G5" s="63">
-        <v>102</v>
-      </c>
-      <c r="H5" s="63">
-        <v>3005</v>
-      </c>
-      <c r="I5" s="63">
-        <v>3006</v>
-      </c>
-      <c r="J5" s="63">
+      <c r="K40" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="61">
+        <v>600</v>
+      </c>
+      <c r="C41" s="61">
+        <v>390</v>
+      </c>
+      <c r="D41" s="61">
+        <v>114</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61">
+        <v>456</v>
+      </c>
+      <c r="G41" s="61">
+        <v>115</v>
+      </c>
+      <c r="H41" s="63">
+        <v>3094</v>
+      </c>
+      <c r="I41" s="63">
+        <v>3114</v>
+      </c>
+      <c r="J41" s="63">
         <v>0</v>
       </c>
-      <c r="K5" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="63">
-        <v>630</v>
-      </c>
-      <c r="C6" s="63">
-        <v>630</v>
-      </c>
-      <c r="D6" s="63">
-        <v>100</v>
-      </c>
-      <c r="E6" s="63">
-        <v>756</v>
-      </c>
-      <c r="F6" s="63">
-        <v>690</v>
-      </c>
-      <c r="G6" s="63">
-        <v>101</v>
-      </c>
-      <c r="H6" s="63">
-        <v>3005</v>
-      </c>
-      <c r="I6" s="63">
-        <v>3085</v>
-      </c>
-      <c r="J6" s="63">
+      <c r="K41" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="61">
+        <v>400</v>
+      </c>
+      <c r="C42" s="61">
+        <v>390</v>
+      </c>
+      <c r="D42" s="61">
+        <v>112</v>
+      </c>
+      <c r="E42" s="61">
+        <v>480</v>
+      </c>
+      <c r="F42" s="61">
+        <v>456</v>
+      </c>
+      <c r="G42" s="61">
+        <v>113</v>
+      </c>
+      <c r="H42" s="62">
+        <v>3018</v>
+      </c>
+      <c r="I42" s="62">
+        <v>3020</v>
+      </c>
+      <c r="J42" s="62">
         <v>0</v>
       </c>
-      <c r="K6" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
-        <v>630</v>
-      </c>
-      <c r="C7" s="63">
-        <v>630</v>
-      </c>
-      <c r="D7" s="63">
-        <v>103</v>
-      </c>
-      <c r="E7" s="63">
-        <v>756</v>
-      </c>
-      <c r="F7" s="63">
-        <v>710</v>
-      </c>
-      <c r="G7" s="63">
-        <v>104</v>
-      </c>
-      <c r="H7" s="63">
-        <v>3005</v>
-      </c>
-      <c r="I7" s="63">
-        <v>60</v>
-      </c>
-      <c r="J7" s="63">
+      <c r="K42" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="61">
+        <v>600</v>
+      </c>
+      <c r="C43" s="61">
+        <v>390</v>
+      </c>
+      <c r="D43" s="61">
+        <v>114</v>
+      </c>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61">
+        <v>456</v>
+      </c>
+      <c r="G43" s="61">
+        <v>115</v>
+      </c>
+      <c r="H43" s="62">
+        <v>3083</v>
+      </c>
+      <c r="I43" s="62">
+        <v>3114</v>
+      </c>
+      <c r="J43" s="62">
         <v>0</v>
       </c>
-      <c r="K7" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="63">
-        <v>630</v>
-      </c>
-      <c r="C8" s="63">
-        <v>630</v>
-      </c>
-      <c r="D8" s="63">
-        <v>100</v>
-      </c>
-      <c r="E8" s="63">
-        <v>756</v>
-      </c>
-      <c r="F8" s="63">
-        <v>690</v>
-      </c>
-      <c r="G8" s="63">
-        <v>101</v>
-      </c>
-      <c r="H8" s="63">
-        <v>1067</v>
-      </c>
-      <c r="I8" s="63">
-        <v>1030</v>
-      </c>
-      <c r="J8" s="63">
-        <v>0</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="63">
-        <v>630</v>
-      </c>
-      <c r="C9" s="63">
-        <v>630</v>
-      </c>
-      <c r="D9" s="63">
-        <v>100</v>
-      </c>
-      <c r="E9" s="63">
-        <v>756</v>
-      </c>
-      <c r="F9" s="63">
-        <v>690</v>
-      </c>
-      <c r="G9" s="63">
-        <v>101</v>
-      </c>
-      <c r="H9" s="63">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="63">
-        <v>1072</v>
-      </c>
-      <c r="J9" s="63">
-        <v>0</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="L9" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="63">
-        <v>630</v>
-      </c>
-      <c r="C10" s="63">
-        <v>630</v>
-      </c>
-      <c r="D10" s="63">
-        <v>100</v>
-      </c>
-      <c r="E10" s="63">
-        <v>756</v>
-      </c>
-      <c r="F10" s="63">
-        <v>690</v>
-      </c>
-      <c r="G10" s="63">
-        <v>101</v>
-      </c>
-      <c r="H10" s="63">
-        <v>1072</v>
-      </c>
-      <c r="I10" s="63">
-        <v>1080</v>
-      </c>
-      <c r="J10" s="63">
-        <v>0</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="63">
-        <v>630</v>
-      </c>
-      <c r="C11" s="63">
-        <v>630</v>
-      </c>
-      <c r="D11" s="63">
-        <v>100</v>
-      </c>
-      <c r="E11" s="63">
-        <v>756</v>
-      </c>
-      <c r="F11" s="63">
-        <v>690</v>
-      </c>
-      <c r="G11" s="63">
-        <v>101</v>
-      </c>
-      <c r="H11" s="63">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="63">
-        <v>2002</v>
-      </c>
-      <c r="J11" s="63">
-        <v>0</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="63">
-        <v>630</v>
-      </c>
-      <c r="C12" s="63">
-        <v>630</v>
-      </c>
-      <c r="D12" s="63">
-        <v>100</v>
-      </c>
-      <c r="E12" s="63">
-        <v>756</v>
-      </c>
-      <c r="F12" s="63">
-        <v>690</v>
-      </c>
-      <c r="G12" s="63">
-        <v>101</v>
-      </c>
-      <c r="H12" s="63">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="63">
-        <v>1</v>
-      </c>
-      <c r="J12" s="63">
-        <v>0</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="63">
-        <v>630</v>
-      </c>
-      <c r="C13" s="63">
-        <v>630</v>
-      </c>
-      <c r="D13" s="63">
-        <v>100</v>
-      </c>
-      <c r="E13" s="63">
-        <v>756</v>
-      </c>
-      <c r="F13" s="63">
-        <v>690</v>
-      </c>
-      <c r="G13" s="63">
-        <v>101</v>
-      </c>
-      <c r="H13" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="64">
-        <v>1067</v>
-      </c>
-      <c r="J13" s="64">
-        <v>1</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="63">
-        <v>630</v>
-      </c>
-      <c r="C14" s="63">
-        <v>630</v>
-      </c>
-      <c r="D14" s="63">
-        <v>100</v>
-      </c>
-      <c r="E14" s="63">
-        <v>756</v>
-      </c>
-      <c r="F14" s="63">
-        <v>690</v>
-      </c>
-      <c r="G14" s="63">
-        <v>101</v>
-      </c>
-      <c r="H14" s="64">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="64">
-        <v>1067</v>
-      </c>
-      <c r="J14" s="64">
+      <c r="K43" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="61">
+        <v>600</v>
+      </c>
+      <c r="C44" s="61">
+        <v>600</v>
+      </c>
+      <c r="D44" s="61">
+        <v>108</v>
+      </c>
+      <c r="E44" s="61">
+        <v>720</v>
+      </c>
+      <c r="F44" s="61">
+        <v>605</v>
+      </c>
+      <c r="G44" s="61">
+        <v>116</v>
+      </c>
+      <c r="H44" s="61">
+        <v>3131</v>
+      </c>
+      <c r="I44" s="61">
+        <v>3020</v>
+      </c>
+      <c r="J44" s="61">
         <v>2</v>
       </c>
-      <c r="K14" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="63">
-        <v>320</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63">
-        <v>384</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="63">
-        <v>1029</v>
-      </c>
-      <c r="J15" s="63">
-        <v>0</v>
-      </c>
-      <c r="K15" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="63">
-        <v>630</v>
-      </c>
-      <c r="C16" s="63">
-        <v>630</v>
-      </c>
-      <c r="D16" s="63">
-        <v>100</v>
-      </c>
-      <c r="E16" s="63">
-        <v>756</v>
-      </c>
-      <c r="F16" s="63">
-        <v>690</v>
-      </c>
-      <c r="G16" s="63">
-        <v>101</v>
-      </c>
-      <c r="H16" s="63">
-        <v>1067</v>
-      </c>
-      <c r="I16" s="63">
-        <v>1076</v>
-      </c>
-      <c r="J16" s="63">
-        <v>0</v>
-      </c>
-      <c r="K16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
-        <v>630</v>
-      </c>
-      <c r="C17" s="63">
-        <v>630</v>
-      </c>
-      <c r="D17" s="63">
-        <v>100</v>
-      </c>
-      <c r="E17" s="63">
-        <v>756</v>
-      </c>
-      <c r="F17" s="63">
-        <v>690</v>
-      </c>
-      <c r="G17" s="63">
-        <v>101</v>
-      </c>
-      <c r="H17" s="63">
-        <v>1076</v>
-      </c>
-      <c r="I17" s="63">
-        <v>1080</v>
-      </c>
-      <c r="J17" s="63">
-        <v>0</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="63">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="63">
-        <v>871</v>
-      </c>
-      <c r="D18" s="63">
-        <v>105</v>
-      </c>
-      <c r="E18" s="63">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="63">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="63">
-        <v>106</v>
-      </c>
-      <c r="H18" s="63">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="63">
-        <v>2003</v>
-      </c>
-      <c r="J18" s="63">
-        <v>0</v>
-      </c>
-      <c r="K18" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="63">
-        <v>400</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63">
-        <v>400</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63">
-        <v>1121</v>
-      </c>
-      <c r="I19" s="63">
-        <v>1130</v>
-      </c>
-      <c r="J19" s="63">
-        <v>2</v>
-      </c>
-      <c r="K19" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="63">
-        <v>400</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63">
-        <v>400</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63">
-        <v>1121</v>
-      </c>
-      <c r="I20" s="63">
-        <v>1130</v>
-      </c>
-      <c r="J20" s="63">
-        <v>1</v>
-      </c>
-      <c r="K20" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
-        <v>400</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63">
-        <v>400</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63">
-        <v>1080</v>
-      </c>
-      <c r="I21" s="63">
-        <v>1114</v>
-      </c>
-      <c r="J21" s="63">
-        <v>0</v>
-      </c>
-      <c r="K21" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="63">
-        <v>400</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63">
-        <v>400</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63">
-        <v>1080</v>
-      </c>
-      <c r="I22" s="63">
-        <v>1107</v>
-      </c>
-      <c r="J22" s="63">
-        <v>0</v>
-      </c>
-      <c r="K22" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
-        <v>400</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63">
-        <v>400</v>
-      </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63">
-        <v>1080</v>
-      </c>
-      <c r="I23" s="63">
-        <v>1087</v>
-      </c>
-      <c r="J23" s="63">
-        <v>0</v>
-      </c>
-      <c r="K23" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="L23" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="63">
-        <v>400</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63">
-        <v>400</v>
-      </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63">
-        <v>1080</v>
-      </c>
-      <c r="I24" s="63">
-        <v>1088</v>
-      </c>
-      <c r="J24" s="63">
-        <v>0</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="63">
-        <v>630</v>
-      </c>
-      <c r="C25" s="63">
-        <v>630</v>
-      </c>
-      <c r="D25" s="63">
-        <v>100</v>
-      </c>
-      <c r="E25" s="63">
-        <v>756</v>
-      </c>
-      <c r="F25" s="63">
-        <v>690</v>
-      </c>
-      <c r="G25" s="63">
-        <v>101</v>
-      </c>
-      <c r="H25" s="63">
-        <v>2001</v>
-      </c>
-      <c r="I25" s="63">
-        <v>2003</v>
-      </c>
-      <c r="J25" s="63">
-        <v>0</v>
-      </c>
-      <c r="K25" s="63" t="s">
+      <c r="K44" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="L25" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="63">
-        <v>2000</v>
-      </c>
-      <c r="C26" s="63">
-        <v>825</v>
-      </c>
-      <c r="D26" s="63">
-        <v>107</v>
-      </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63">
-        <v>825</v>
-      </c>
-      <c r="G26" s="63">
-        <v>107</v>
-      </c>
-      <c r="H26" s="63">
-        <v>2003</v>
-      </c>
-      <c r="I26" s="63">
-        <v>3005</v>
-      </c>
-      <c r="J26" s="63">
-        <v>0</v>
-      </c>
-      <c r="K26" s="63" t="s">
+      <c r="L44" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="61">
+        <v>600</v>
+      </c>
+      <c r="C45" s="61">
+        <v>600</v>
+      </c>
+      <c r="D45" s="61">
+        <v>108</v>
+      </c>
+      <c r="E45" s="61">
+        <v>720</v>
+      </c>
+      <c r="F45" s="61">
+        <v>605</v>
+      </c>
+      <c r="G45" s="61">
+        <v>116</v>
+      </c>
+      <c r="H45" s="61">
+        <v>3131</v>
+      </c>
+      <c r="I45" s="61">
+        <v>3020</v>
+      </c>
+      <c r="J45" s="61">
+        <v>1</v>
+      </c>
+      <c r="K45" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="63">
-        <v>1000</v>
-      </c>
-      <c r="C27" s="63">
-        <v>690</v>
-      </c>
-      <c r="D27" s="63">
-        <v>102</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63">
-        <v>690</v>
-      </c>
-      <c r="G27" s="63">
-        <v>102</v>
-      </c>
-      <c r="H27" s="63">
-        <v>2003</v>
-      </c>
-      <c r="I27" s="63">
-        <v>3007</v>
-      </c>
-      <c r="J27" s="63">
-        <v>0</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="63">
-        <v>600</v>
-      </c>
-      <c r="C28" s="63">
-        <v>600</v>
-      </c>
-      <c r="D28" s="63">
-        <v>108</v>
-      </c>
-      <c r="E28" s="63">
-        <v>600</v>
-      </c>
-      <c r="F28" s="63">
-        <v>600</v>
-      </c>
-      <c r="G28" s="63">
-        <v>108</v>
-      </c>
-      <c r="H28" s="63">
-        <v>10</v>
-      </c>
-      <c r="I28" s="63">
-        <v>48</v>
-      </c>
-      <c r="J28" s="63">
-        <v>1</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="63">
-        <v>600</v>
-      </c>
-      <c r="C29" s="63">
-        <v>600</v>
-      </c>
-      <c r="D29" s="63">
-        <v>108</v>
-      </c>
-      <c r="E29" s="63">
-        <v>600</v>
-      </c>
-      <c r="F29" s="63">
-        <v>600</v>
-      </c>
-      <c r="G29" s="63">
-        <v>108</v>
-      </c>
-      <c r="H29" s="63">
-        <v>10</v>
-      </c>
-      <c r="I29" s="63">
-        <v>48</v>
-      </c>
-      <c r="J29" s="63">
-        <v>2</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="63">
-        <v>320</v>
-      </c>
-      <c r="C30" s="63">
-        <v>320</v>
-      </c>
-      <c r="D30" s="63">
-        <v>109</v>
-      </c>
-      <c r="E30" s="63">
-        <v>320</v>
-      </c>
-      <c r="F30" s="63">
-        <v>320</v>
-      </c>
-      <c r="G30" s="63">
-        <v>109</v>
-      </c>
-      <c r="H30" s="63">
-        <v>1062</v>
-      </c>
-      <c r="I30" s="63">
-        <v>1005</v>
-      </c>
-      <c r="J30" s="63">
-        <v>0</v>
-      </c>
-      <c r="K30" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="63">
-        <v>320</v>
-      </c>
-      <c r="C31" s="63">
-        <v>320</v>
-      </c>
-      <c r="D31" s="63">
-        <v>109</v>
-      </c>
-      <c r="E31" s="63">
-        <v>320</v>
-      </c>
-      <c r="F31" s="63">
-        <v>320</v>
-      </c>
-      <c r="G31" s="63">
-        <v>109</v>
-      </c>
-      <c r="H31" s="63">
-        <v>1005</v>
-      </c>
-      <c r="I31" s="63">
-        <v>1012</v>
-      </c>
-      <c r="J31" s="63">
-        <v>0</v>
-      </c>
-      <c r="K31" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="63">
-        <v>320</v>
-      </c>
-      <c r="C32" s="63">
-        <v>320</v>
-      </c>
-      <c r="D32" s="63">
-        <v>109</v>
-      </c>
-      <c r="E32" s="63">
-        <v>320</v>
-      </c>
-      <c r="F32" s="63">
-        <v>320</v>
-      </c>
-      <c r="G32" s="63">
-        <v>109</v>
-      </c>
-      <c r="H32" s="63">
-        <v>1012</v>
-      </c>
-      <c r="I32" s="63">
-        <v>1010</v>
-      </c>
-      <c r="J32" s="63">
-        <v>0</v>
-      </c>
-      <c r="K32" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="63">
-        <v>400</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63">
-        <v>400</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63">
-        <v>1041</v>
-      </c>
-      <c r="I33" s="63">
-        <v>1064</v>
-      </c>
-      <c r="J33" s="63">
-        <v>0</v>
-      </c>
-      <c r="K33" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="63">
-        <v>400</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63">
-        <v>400</v>
-      </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="63">
-        <v>1041</v>
-      </c>
-      <c r="J34" s="63">
-        <v>0</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="L34" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="63">
-        <v>400</v>
-      </c>
-      <c r="C35" s="63">
-        <v>400</v>
-      </c>
-      <c r="D35" s="63">
-        <v>110</v>
-      </c>
-      <c r="E35" s="63">
-        <v>400</v>
-      </c>
-      <c r="F35" s="63">
-        <v>400</v>
-      </c>
-      <c r="G35" s="63">
-        <v>110</v>
-      </c>
-      <c r="H35" s="63">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="63">
-        <v>1008</v>
-      </c>
-      <c r="J35" s="63">
-        <v>0</v>
-      </c>
-      <c r="K35" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="63">
-        <v>400</v>
-      </c>
-      <c r="C36" s="63">
-        <v>400</v>
-      </c>
-      <c r="D36" s="63">
-        <v>110</v>
-      </c>
-      <c r="E36" s="63">
-        <v>400</v>
-      </c>
-      <c r="F36" s="63">
-        <v>400</v>
-      </c>
-      <c r="G36" s="63">
-        <v>110</v>
-      </c>
-      <c r="H36" s="63">
-        <v>1008</v>
-      </c>
-      <c r="I36" s="63">
-        <v>1011</v>
-      </c>
-      <c r="J36" s="63">
-        <v>0</v>
-      </c>
-      <c r="K36" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="63">
-        <v>320</v>
-      </c>
-      <c r="C37" s="63">
-        <v>320</v>
-      </c>
-      <c r="D37" s="63">
-        <v>109</v>
-      </c>
-      <c r="E37" s="63">
-        <v>320</v>
-      </c>
-      <c r="F37" s="63">
-        <v>320</v>
-      </c>
-      <c r="G37" s="63">
-        <v>109</v>
-      </c>
-      <c r="H37" s="63">
-        <v>1011</v>
-      </c>
-      <c r="I37" s="63">
-        <v>1010</v>
-      </c>
-      <c r="J37" s="63">
-        <v>0</v>
-      </c>
-      <c r="K37" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="L37" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="63">
-        <v>1000</v>
-      </c>
-      <c r="C38" s="63">
-        <v>960</v>
-      </c>
-      <c r="D38" s="63">
-        <v>111</v>
-      </c>
-      <c r="E38" s="63">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="63">
-        <v>960</v>
-      </c>
-      <c r="G38" s="63">
-        <v>111</v>
-      </c>
-      <c r="H38" s="63">
-        <v>2006</v>
-      </c>
-      <c r="I38" s="63">
-        <v>2010</v>
-      </c>
-      <c r="J38" s="63">
-        <v>1</v>
-      </c>
-      <c r="K38" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="L38" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="63">
-        <v>1000</v>
-      </c>
-      <c r="C39" s="63">
-        <v>960</v>
-      </c>
-      <c r="D39" s="63">
-        <v>111</v>
-      </c>
-      <c r="E39" s="63">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="63">
-        <v>960</v>
-      </c>
-      <c r="G39" s="63">
-        <v>111</v>
-      </c>
-      <c r="H39" s="63">
-        <v>2006</v>
-      </c>
-      <c r="I39" s="63">
-        <v>2010</v>
-      </c>
-      <c r="J39" s="63">
-        <v>2</v>
-      </c>
-      <c r="K39" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="63">
-        <v>400</v>
-      </c>
-      <c r="C40" s="63">
-        <v>390</v>
-      </c>
-      <c r="D40" s="63">
-        <v>112</v>
-      </c>
-      <c r="E40" s="63">
-        <v>480</v>
-      </c>
-      <c r="F40" s="63">
-        <v>456</v>
-      </c>
-      <c r="G40" s="63">
-        <v>113</v>
-      </c>
-      <c r="H40" s="65">
-        <v>3015</v>
-      </c>
-      <c r="I40" s="65">
-        <v>3020</v>
-      </c>
-      <c r="J40" s="65">
-        <v>0</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="L40" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="63">
-        <v>600</v>
-      </c>
-      <c r="C41" s="63">
-        <v>390</v>
-      </c>
-      <c r="D41" s="63">
-        <v>114</v>
-      </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63">
-        <v>456</v>
-      </c>
-      <c r="G41" s="63">
-        <v>115</v>
-      </c>
-      <c r="H41" s="65">
-        <v>3094</v>
-      </c>
-      <c r="I41" s="65">
-        <v>3114</v>
-      </c>
-      <c r="J41" s="65">
-        <v>0</v>
-      </c>
-      <c r="K41" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="L41" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="63">
-        <v>400</v>
-      </c>
-      <c r="C42" s="63">
-        <v>390</v>
-      </c>
-      <c r="D42" s="63">
-        <v>112</v>
-      </c>
-      <c r="E42" s="63">
-        <v>480</v>
-      </c>
-      <c r="F42" s="63">
-        <v>456</v>
-      </c>
-      <c r="G42" s="63">
-        <v>113</v>
-      </c>
-      <c r="H42" s="64">
-        <v>3018</v>
-      </c>
-      <c r="I42" s="64">
-        <v>3020</v>
-      </c>
-      <c r="J42" s="64">
-        <v>0</v>
-      </c>
-      <c r="K42" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="L42" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="63">
-        <v>600</v>
-      </c>
-      <c r="C43" s="63">
-        <v>390</v>
-      </c>
-      <c r="D43" s="63">
-        <v>114</v>
-      </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63">
-        <v>456</v>
-      </c>
-      <c r="G43" s="63">
-        <v>115</v>
-      </c>
-      <c r="H43" s="64">
-        <v>3083</v>
-      </c>
-      <c r="I43" s="64">
-        <v>3114</v>
-      </c>
-      <c r="J43" s="64">
-        <v>0</v>
-      </c>
-      <c r="K43" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="L43" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="63">
-        <v>600</v>
-      </c>
-      <c r="C44" s="63">
-        <v>600</v>
-      </c>
-      <c r="D44" s="63">
-        <v>108</v>
-      </c>
-      <c r="E44" s="63">
-        <v>720</v>
-      </c>
-      <c r="F44" s="63">
-        <v>605</v>
-      </c>
-      <c r="G44" s="63">
-        <v>116</v>
-      </c>
-      <c r="H44" s="63">
-        <v>3131</v>
-      </c>
-      <c r="I44" s="63">
-        <v>3020</v>
-      </c>
-      <c r="J44" s="63">
-        <v>2</v>
-      </c>
-      <c r="K44" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="L44" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="63">
-        <v>600</v>
-      </c>
-      <c r="C45" s="63">
-        <v>600</v>
-      </c>
-      <c r="D45" s="63">
-        <v>108</v>
-      </c>
-      <c r="E45" s="63">
-        <v>720</v>
-      </c>
-      <c r="F45" s="63">
-        <v>605</v>
-      </c>
-      <c r="G45" s="63">
-        <v>116</v>
-      </c>
-      <c r="H45" s="63">
-        <v>3131</v>
-      </c>
-      <c r="I45" s="63">
-        <v>3020</v>
-      </c>
-      <c r="J45" s="63">
-        <v>1</v>
-      </c>
-      <c r="K45" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="L45" s="63">
+      <c r="L45" s="61">
         <v>1</v>
       </c>
     </row>
@@ -5976,22 +6080,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>202</v>
+      <c r="A1" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>204</v>
+      <c r="A2" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -6004,8 +6108,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>203</v>
+      <c r="A3" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -6018,7 +6122,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="60">
         <v>0</v>
       </c>
       <c r="B4">
@@ -8953,20 +9057,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="56">
         <v>0.95</v>
       </c>
@@ -9083,155 +9187,295 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B909617-90E7-408C-8E5F-D1B288887DC7}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="D11:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="I1" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="J1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="94">
+        <v>15177</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F9" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="I9" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H10" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="K10" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" t="s">
-        <v>152</v>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
